--- a/TRACE_ITOG_EXCEL/Статья AVX.xlsx
+++ b/TRACE_ITOG_EXCEL/Статья AVX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LAPTOP" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="18">
   <si>
     <t>МО</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>CUDA ant add CPU_AVX Time</t>
+  </si>
+  <si>
+    <t>12th Gen Intel(R) Core(TM) i5-12450H   2.00 GHz</t>
+  </si>
+  <si>
+    <t>16,0 ГБ (доступно: 15,7 ГБ)</t>
+  </si>
+  <si>
+    <t>Time non CUDA AVX time 4</t>
+  </si>
+  <si>
+    <t>Time non CUDA AVX add CPU time 4</t>
   </si>
 </sst>
 </file>
@@ -433,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="C58:J62"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +462,7 @@
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1.96</v>
       </c>
@@ -484,8 +496,11 @@
       <c r="L1" s="7">
         <v>512</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -517,8 +532,11 @@
       <c r="L2" s="9">
         <v>10752</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -549,7 +567,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -577,7 +595,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +623,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -633,7 +651,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -659,7 +677,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,7 +703,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -713,7 +731,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -741,7 +759,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
@@ -767,55 +785,119 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10">
+        <v>655.85187999999994</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1122.2881999999997</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2062.2731999999992</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3843.9814000000006</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7733.3808000000008</v>
+      </c>
+      <c r="I12" s="10">
+        <v>14666.314000000002</v>
+      </c>
+      <c r="J12" s="10">
+        <v>28278.648000000001</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10">
+        <v>326.85911999999996</v>
+      </c>
+      <c r="E13" s="10">
+        <v>560.98236000000009</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1056.0063999999995</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2086.9771999999989</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4302.8068000000003</v>
+      </c>
+      <c r="I13" s="10">
+        <v>8533.8542000000034</v>
+      </c>
+      <c r="J13" s="10">
+        <v>16822.824000000004</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10">
+        <v>573.63522</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1033.2558000000004</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1921.5246000000002</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3649.9785999999999</v>
+      </c>
+      <c r="H14" s="10">
+        <v>7160.9678000000013</v>
+      </c>
+      <c r="I14" s="10">
+        <v>14267.314000000002</v>
+      </c>
+      <c r="J14" s="10">
+        <v>27570.591999999997</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10">
+        <v>312.60660000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>548.42255999999975</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1018.17294</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2016.2661999999996</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4164.2593999999999</v>
+      </c>
+      <c r="I15" s="10">
+        <v>8335.7697999999982</v>
+      </c>
+      <c r="J15" s="10">
+        <v>16520.026000000002</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1277,7 +1359,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5">
-        <f t="shared" ref="E40:L40" si="8">E11/E$2</f>
+        <f t="shared" ref="D40:L42" si="8">E11/E$2</f>
         <v>7.0029797619047613</v>
       </c>
       <c r="F40" s="5">
@@ -1310,26 +1392,72 @@
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="8"/>
+        <v>15.615520952380951</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="8"/>
+        <v>13.360573809523807</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="8"/>
+        <v>12.27543571428571</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="8"/>
+        <v>11.440420833333334</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="8"/>
+        <v>11.508007142857144</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="8"/>
+        <v>10.912436011904763</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="8"/>
+        <v>10.520330357142857</v>
+      </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="8"/>
+        <v>7.7823599999999988</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="8"/>
+        <v>6.6783614285714297</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="8"/>
+        <v>6.2857523809523785</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="8"/>
+        <v>6.2112416666666634</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="8"/>
+        <v>6.4029863095238095</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="8"/>
+        <v>6.349593898809526</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="8"/>
+        <v>6.2584910714285726</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
@@ -1496,11 +1624,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="12">
-        <f>D$3/D3</f>
+        <f t="shared" ref="D57:L57" si="9">D$3/D3</f>
         <v>1</v>
       </c>
       <c r="E57" s="12">
-        <f t="shared" ref="E57:G57" si="9">E$3/E3</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F57" s="12">
@@ -1512,23 +1640,23 @@
         <v>1</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" ref="H57:L57" si="10">H$3/H3</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I57" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J57" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K57" s="12" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L57" s="12" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1537,39 +1665,39 @@
         <v>2</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" ref="D58:L65" si="11">D$3/D4</f>
+        <f t="shared" ref="D58:L67" si="10">D$3/D4</f>
         <v>11.898648448495283</v>
       </c>
       <c r="E58" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.20297172756055</v>
       </c>
       <c r="F58" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.161523990134619</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.161290046621225</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" ref="H58:L58" si="12">H$3/H4</f>
+        <f>H$3/H4</f>
         <v>11.988786822710042</v>
       </c>
       <c r="I58" s="12">
-        <f t="shared" si="12"/>
+        <f>I$3/I4</f>
         <v>12.27610765381775</v>
       </c>
       <c r="J58" s="12">
-        <f t="shared" si="12"/>
+        <f>J$3/J4</f>
         <v>12.168533486659513</v>
       </c>
       <c r="K58" s="12" t="e">
-        <f t="shared" si="12"/>
+        <f>K$3/K4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L58" s="12" t="e">
-        <f t="shared" si="12"/>
+        <f>L$3/L4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1578,31 +1706,31 @@
         <v>4</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.522805135565518</v>
       </c>
       <c r="E59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.666325349399797</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.428722498604687</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.068474238576121</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.765758345867667</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.168237382671395</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.2156309948992</v>
       </c>
       <c r="K59" s="12"/>
@@ -1613,39 +1741,39 @@
         <v>5</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.843060105059831</v>
       </c>
       <c r="E60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.1476576713764</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.18763776624615</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.97343658121542</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.339088964738705</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.491908727437815</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.150986805198217</v>
       </c>
       <c r="K60" s="12" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L60" s="12" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1655,27 +1783,27 @@
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.646125376081645</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.791033769964903</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.611333730668781</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.359729999691766</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.423242679972157</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.509244898795012</v>
       </c>
       <c r="K61" s="12"/>
@@ -1687,27 +1815,27 @@
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.631642694762933</v>
       </c>
       <c r="F62" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.717524095911303</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.623149221810747</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.047250764062603</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.425263361592611</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.199688371716668</v>
       </c>
       <c r="K62" s="12"/>
@@ -1718,39 +1846,39 @@
         <v>8</v>
       </c>
       <c r="D63" s="12">
+        <f t="shared" si="10"/>
+        <v>19.529441682208116</v>
+      </c>
+      <c r="E63" s="12">
+        <f t="shared" si="10"/>
+        <v>22.72729210383007</v>
+      </c>
+      <c r="F63" s="12">
+        <f t="shared" si="10"/>
+        <v>22.581099871588748</v>
+      </c>
+      <c r="G63" s="12">
+        <f t="shared" si="10"/>
+        <v>21.831125732391133</v>
+      </c>
+      <c r="H63" s="12">
+        <f t="shared" ref="H63:L64" si="11">H$3/H9</f>
+        <v>21.315944706163879</v>
+      </c>
+      <c r="I63" s="12">
         <f t="shared" si="11"/>
-        <v>19.529441682208116</v>
-      </c>
-      <c r="E63" s="12">
+        <v>21.601264869663865</v>
+      </c>
+      <c r="J63" s="12">
         <f t="shared" si="11"/>
-        <v>22.72729210383007</v>
-      </c>
-      <c r="F63" s="12">
+        <v>21.81673390672368</v>
+      </c>
+      <c r="K63" s="12" t="e">
         <f t="shared" si="11"/>
-        <v>22.581099871588748</v>
-      </c>
-      <c r="G63" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L63" s="12" t="e">
         <f t="shared" si="11"/>
-        <v>21.831125732391133</v>
-      </c>
-      <c r="H63" s="12">
-        <f t="shared" ref="H63:L63" si="13">H$3/H9</f>
-        <v>21.315944706163879</v>
-      </c>
-      <c r="I63" s="12">
-        <f t="shared" si="13"/>
-        <v>21.601264869663865</v>
-      </c>
-      <c r="J63" s="12">
-        <f t="shared" si="13"/>
-        <v>21.81673390672368</v>
-      </c>
-      <c r="K63" s="12" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L63" s="12" t="e">
-        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1759,39 +1887,39 @@
         <v>9</v>
       </c>
       <c r="D64" s="12">
+        <f t="shared" si="10"/>
+        <v>6.7220129301420206</v>
+      </c>
+      <c r="E64" s="12">
+        <f t="shared" si="10"/>
+        <v>7.6949532856858855</v>
+      </c>
+      <c r="F64" s="12">
+        <f t="shared" si="10"/>
+        <v>7.2146020899025167</v>
+      </c>
+      <c r="G64" s="12">
+        <f t="shared" si="10"/>
+        <v>7.5885136275730485</v>
+      </c>
+      <c r="H64" s="12">
         <f t="shared" si="11"/>
-        <v>6.7220129301420206</v>
-      </c>
-      <c r="E64" s="12">
+        <v>7.7792760735573125</v>
+      </c>
+      <c r="I64" s="12">
         <f t="shared" si="11"/>
-        <v>7.6949532856858855</v>
-      </c>
-      <c r="F64" s="12">
+        <v>8.4256557102607932</v>
+      </c>
+      <c r="J64" s="12">
         <f t="shared" si="11"/>
-        <v>7.2146020899025167</v>
-      </c>
-      <c r="G64" s="12">
+        <v>10.033871690165729</v>
+      </c>
+      <c r="K64" s="12" t="e">
         <f t="shared" si="11"/>
-        <v>7.5885136275730485</v>
-      </c>
-      <c r="H64" s="12">
-        <f t="shared" ref="H64:L64" si="14">H$3/H10</f>
-        <v>7.7792760735573125</v>
-      </c>
-      <c r="I64" s="12">
-        <f t="shared" si="14"/>
-        <v>8.4256557102607932</v>
-      </c>
-      <c r="J64" s="12">
-        <f t="shared" si="14"/>
-        <v>10.033871690165729</v>
-      </c>
-      <c r="K64" s="12" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L64" s="12" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1801,53 +1929,99 @@
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>21.751914108671095</v>
       </c>
       <c r="F65" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>23.559576949213486</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>23.937108638810386</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>23.953493790665281</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>23.412477582646229</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>23.727015826215407</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="12">
+        <f t="shared" si="10"/>
+        <v>10.264581996776469</v>
+      </c>
+      <c r="E66" s="12">
+        <f t="shared" si="10"/>
+        <v>11.401322761836045</v>
+      </c>
+      <c r="F66" s="12">
+        <f t="shared" si="10"/>
+        <v>11.69221032402497</v>
+      </c>
+      <c r="G66" s="12">
+        <f t="shared" si="10"/>
+        <v>11.982197416459922</v>
+      </c>
+      <c r="H66" s="12">
+        <f t="shared" si="10"/>
+        <v>11.884575242951954</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="10"/>
+        <v>12.573580519277028</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="10"/>
+        <v>12.998158186346108</v>
+      </c>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
+      <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="12">
+        <f t="shared" si="10"/>
+        <v>20.596168159542255</v>
+      </c>
+      <c r="E67" s="12">
+        <f t="shared" si="10"/>
+        <v>22.809219883491522</v>
+      </c>
+      <c r="F67" s="12">
+        <f t="shared" si="10"/>
+        <v>22.833698735159192</v>
+      </c>
+      <c r="G67" s="12">
+        <f t="shared" si="10"/>
+        <v>22.069883657569438</v>
+      </c>
+      <c r="H67" s="12">
+        <f t="shared" si="10"/>
+        <v>21.359998315518133</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" si="10"/>
+        <v>21.609002881722528</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="10"/>
+        <v>21.84950279453675</v>
+      </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
     </row>
@@ -2261,26 +2435,58 @@
       <c r="L97" s="1"/>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1">
+        <v>440.01813035560019</v>
+      </c>
+      <c r="E98" s="1">
+        <v>496.41035612000042</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2357.7924625200008</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1698.0247884</v>
+      </c>
+      <c r="H98" s="1">
+        <v>39549.649068520004</v>
+      </c>
+      <c r="I98" s="1">
+        <v>12301.854527</v>
+      </c>
+      <c r="J98" s="1">
+        <v>25840.655780999972</v>
+      </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="1">
+        <v>519.92839393000008</v>
+      </c>
+      <c r="E99" s="1">
+        <v>124.15633335880011</v>
+      </c>
+      <c r="F99" s="1">
+        <v>120.18483940000007</v>
+      </c>
+      <c r="G99" s="1">
+        <v>519.07987212000035</v>
+      </c>
+      <c r="H99" s="1">
+        <v>565.71814291999897</v>
+      </c>
+      <c r="I99" s="1">
+        <v>783.29452640000591</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2996.5743080000125</v>
+      </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
@@ -2381,7 +2587,7 @@
       <c r="L107" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D41:D50">
+  <conditionalFormatting sqref="D43:D50">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2393,7 +2599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E50">
+  <conditionalFormatting sqref="E43:E50">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2405,7 +2611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F50">
+  <conditionalFormatting sqref="F43:F50">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2417,7 +2623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G50">
+  <conditionalFormatting sqref="G43:G50">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2429,7 +2635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H50">
+  <conditionalFormatting sqref="H43:H50">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2441,7 +2647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I50">
+  <conditionalFormatting sqref="I43:I50">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2453,7 +2659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D50 D36">
+  <conditionalFormatting sqref="D43:D50 D36">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2465,7 +2671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J50">
+  <conditionalFormatting sqref="J43:J50">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2501,7 +2707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68 H71">
+  <conditionalFormatting sqref="H71 H68">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2513,7 +2719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68 I71">
+  <conditionalFormatting sqref="I71 I68">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2537,7 +2743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62 K65 K68:K73">
+  <conditionalFormatting sqref="K65 K62 K68:K73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2549,7 +2755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L62 L65 L68:L73">
+  <conditionalFormatting sqref="L65 L62 L68:L73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2570,11 +2776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33:L37" si="1">D4/D$2</f>
+        <f t="shared" ref="D33:L35" si="1">D4/D$2</f>
         <v>31.489585000000002</v>
       </c>
       <c r="E33" s="5">
@@ -3286,7 +3492,7 @@
         <v>21.613828125000001</v>
       </c>
       <c r="K35" s="5" t="e">
-        <f t="shared" ref="K35:L35" si="3">K6/K$2</f>
+        <f t="shared" ref="K35:L43" si="3">K6/K$2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="5" t="e">
@@ -3323,15 +3529,15 @@
         <v>20.756683333333338</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" ref="J36:L36" si="5">J7/J$2</f>
+        <f t="shared" ref="J36:J43" si="5">J7/J$2</f>
         <v>21.69184375</v>
       </c>
       <c r="K36" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3364,15 +3570,15 @@
         <v>20.196729687499996</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" ref="J37:L37" si="7">J8/J$2</f>
+        <f t="shared" si="5"/>
         <v>21.733216145833335</v>
       </c>
       <c r="K37" s="5" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="5" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3381,39 +3587,39 @@
         <v>8</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ref="D38:I38" si="8">D9/D$2</f>
+        <f t="shared" ref="D38:I38" si="7">D9/D$2</f>
         <v>28.065823333333338</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25.487613333333332</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>24.338304166666664</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>24.265383333333336</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>23.556109375000002</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>23.985173958333334</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" ref="J38:L38" si="9">J9/J$2</f>
+        <f t="shared" si="5"/>
         <v>24.677934895833328</v>
       </c>
       <c r="K38" s="5" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="5" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3422,39 +3628,39 @@
         <v>9</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" ref="D39:I39" si="10">D10/D$2</f>
+        <f t="shared" ref="D39:I39" si="8">D10/D$2</f>
         <v>101.60401666666667</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>61.350591666666666</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>39.210145833333321</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>31.489987500000009</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>40.777182291666655</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>33.385166666666656</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" ref="J39:L39" si="11">J10/J$2</f>
+        <f t="shared" si="5"/>
         <v>32.896315104166661</v>
       </c>
       <c r="K39" s="5" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="5" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3463,39 +3669,39 @@
         <v>10</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" ref="D40:I40" si="12">D11/D$2</f>
+        <f t="shared" ref="D40:I40" si="9">D11/D$2</f>
         <v>28.675553333333326</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>26.804475833333338</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>25.312958333333338</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>25.271937500000003</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>24.726223958333335</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>24.948530208333338</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" ref="J40:L40" si="13">J11/J$2</f>
+        <f t="shared" si="5"/>
         <v>25.399218749999999</v>
       </c>
       <c r="K40" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3504,39 +3710,39 @@
         <v>11</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" ref="D41:I41" si="14">D12/D$2</f>
+        <f t="shared" ref="D41:I41" si="10">D12/D$2</f>
         <v>32.186960000000006</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>25.371408333333331</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>21.841279166666666</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>20.410456250000003</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>23.167616666666671</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>20.756683333333338</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" ref="J41:L41" si="15">J12/J$2</f>
+        <f t="shared" si="5"/>
         <v>19.041057291666664</v>
       </c>
       <c r="K41" s="5" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="5" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3545,39 +3751,39 @@
         <v>12</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" ref="D42:I42" si="16">D13/D$2</f>
+        <f t="shared" ref="D42:I42" si="11">D13/D$2</f>
         <v>21.794411666666672</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>19.684713333333331</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>18.293216666666666</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>18.615718750000003</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>20.86620104166667</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>18.243225000000002</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" ref="J42:L42" si="17">J13/J$2</f>
+        <f t="shared" si="5"/>
         <v>20.322239583333342</v>
       </c>
       <c r="K42" s="5" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L42" s="5" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3586,39 +3792,39 @@
         <v>13</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ref="D43:I43" si="18">D14/D$2</f>
+        <f t="shared" ref="D43:I43" si="12">D14/D$2</f>
         <v>28.172093333333333</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>25.774979166666665</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>24.436666666666667</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>24.28333541666667</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>23.842478125000014</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>24.125192708333334</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" ref="J43:L43" si="19">J14/J$2</f>
+        <f t="shared" si="5"/>
         <v>24.873013020833337</v>
       </c>
       <c r="K43" s="5" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="5" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3773,35 +3979,35 @@
         <v>1</v>
       </c>
       <c r="E57" s="12">
-        <f t="shared" ref="E57:L58" si="20">E$3/E3</f>
+        <f t="shared" ref="E57:L58" si="13">E$3/E3</f>
         <v>1</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I57" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J57" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K57" s="12" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L57" s="12" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3810,39 +4016,39 @@
         <v>2</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" ref="D58:L65" si="21">D$3/D4</f>
+        <f t="shared" ref="D58:J60" si="14">D$3/D4</f>
         <v>16.277706846036025</v>
       </c>
       <c r="E58" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>18.614019807263002</v>
       </c>
       <c r="F58" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>21.47870258645715</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>21.982995243424003</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>21.17868474721034</v>
       </c>
       <c r="I58" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>21.08479925366267</v>
       </c>
       <c r="J58" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>23.334354035950096</v>
       </c>
       <c r="K58" s="12" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L58" s="12" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3851,31 +4057,31 @@
         <v>4</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>21.06030785813066</v>
       </c>
       <c r="E59" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>22.284230734037319</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>23.778061317908509</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>23.631074358021358</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>19.592533388331219</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>21.319516364062309</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>23.305328146562367</v>
       </c>
       <c r="K59" s="12"/>
@@ -3886,39 +4092,39 @@
         <v>5</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>17.030170142256917</v>
       </c>
       <c r="E60" s="12">
-        <f t="shared" ref="E60:L60" si="22">E$3/E6</f>
+        <f t="shared" ref="E60:L60" si="15">E$3/E6</f>
         <v>19.473297529638252</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>20.904165768145205</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>22.006121301109772</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>18.915998705090658</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>21.746068358053591</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>20.180878609011639</v>
       </c>
       <c r="K60" s="12" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L60" s="12" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3927,39 +4133,39 @@
         <v>6</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" ref="D61:L61" si="23">D$3/D7</f>
+        <f t="shared" ref="D61:L61" si="16">D$3/D7</f>
         <v>15.9250278166479</v>
       </c>
       <c r="E61" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>19.213642390762043</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>20.896919766031715</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>21.533306202631632</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>19.015856454087849</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>20.967084597651674</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>20.108297233455165</v>
       </c>
       <c r="K61" s="12" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="12" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3968,39 +4174,39 @@
         <v>7</v>
       </c>
       <c r="D62" s="12">
-        <f t="shared" ref="D62:L62" si="24">D$3/D8</f>
+        <f t="shared" ref="D62:L62" si="17">D$3/D8</f>
         <v>15.630914032065265</v>
       </c>
       <c r="E62" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>18.510511219398282</v>
       </c>
       <c r="F62" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>19.989249864642467</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>20.752166678208638</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>18.566846047113856</v>
       </c>
       <c r="I62" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>21.548396307250758</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>20.070018111437765</v>
       </c>
       <c r="K62" s="12" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="12" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4009,39 +4215,39 @@
         <v>8</v>
       </c>
       <c r="D63" s="12">
-        <f t="shared" ref="D63:L63" si="25">D$3/D9</f>
+        <f t="shared" ref="D63:L63" si="18">D$3/D9</f>
         <v>18.263431193360084</v>
       </c>
       <c r="E63" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>19.126042140208234</v>
       </c>
       <c r="F63" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>18.752968785657316</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>18.112411336313798</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>18.702242628582063</v>
       </c>
       <c r="I63" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>18.144839648555465</v>
       </c>
       <c r="J63" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>17.675143544539996</v>
       </c>
       <c r="K63" s="12" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="12" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4050,39 +4256,39 @@
         <v>9</v>
       </c>
       <c r="D64" s="12">
-        <f t="shared" ref="D64:L64" si="26">D$3/D10</f>
+        <f t="shared" ref="D64:L64" si="19">D$3/D10</f>
         <v>5.0448619075262933</v>
       </c>
       <c r="E64" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>7.9457614576115878</v>
       </c>
       <c r="F64" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>11.64023873497878</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>13.956963436923134</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>10.803887079924577</v>
       </c>
       <c r="I64" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>13.035943170869302</v>
       </c>
       <c r="J64" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>13.259419490769018</v>
       </c>
       <c r="K64" s="12" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L64" s="12" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4091,39 +4297,39 @@
         <v>10</v>
       </c>
       <c r="D65" s="12">
-        <f t="shared" ref="D65:L65" si="27">D$3/D11</f>
+        <f t="shared" ref="D65:L65" si="20">D$3/D11</f>
         <v>17.87509476713382</v>
       </c>
       <c r="E65" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>18.186409228732348</v>
       </c>
       <c r="F65" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>18.030901498079871</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>17.391013418210083</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>17.817199814215464</v>
       </c>
       <c r="I65" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>17.44419938900041</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>17.173207017112158</v>
       </c>
       <c r="K65" s="12" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L65" s="12" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4132,39 +4338,39 @@
         <v>11</v>
       </c>
       <c r="D66" s="12">
-        <f t="shared" ref="D66:L66" si="28">D$3/D12</f>
+        <f t="shared" ref="D66:L66" si="21">D$3/D12</f>
         <v>15.9250278166479</v>
       </c>
       <c r="E66" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>19.213642390762043</v>
       </c>
       <c r="F66" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>20.896919766031715</v>
       </c>
       <c r="G66" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>21.533306202631632</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>19.015856454087849</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>20.967084597651674</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>22.907658696955018</v>
       </c>
       <c r="K66" s="12" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L66" s="12" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4173,39 +4379,39 @@
         <v>12</v>
       </c>
       <c r="D67" s="12">
-        <f t="shared" ref="D67:L67" si="29">D$3/D13</f>
+        <f t="shared" ref="D67:L67" si="22">D$3/D13</f>
         <v>23.518791934966199</v>
       </c>
       <c r="E67" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>24.764250228688457</v>
       </c>
       <c r="F67" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>24.949983737141185</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>23.60932769070045</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>21.113190275362069</v>
       </c>
       <c r="I67" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>23.855822389773007</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>21.463482894099485</v>
       </c>
       <c r="K67" s="12" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L67" s="12" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4214,39 +4420,39 @@
         <v>13</v>
       </c>
       <c r="D68" s="12">
-        <f t="shared" ref="D68:L68" si="30">D$3/D14</f>
+        <f t="shared" ref="D68:L68" si="23">D$3/D14</f>
         <v>18.194538377694808</v>
       </c>
       <c r="E68" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>18.912805458135676</v>
       </c>
       <c r="F68" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>18.677484313190561</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>18.099021268100437</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>18.477612545431093</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>18.039529908763683</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>17.536518044730748</v>
       </c>
       <c r="K68" s="12" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L68" s="12" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/TRACE_ITOG_EXCEL/Статья AVX.xlsx
+++ b/TRACE_ITOG_EXCEL/Статья AVX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Ускорение 100" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="44">
   <si>
     <t>МО</t>
   </si>
@@ -682,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -808,6 +808,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -838,21 +853,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1585,6 +1587,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -2440,6 +2443,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -3287,6 +3291,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -11664,13 +11669,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12385,7 +12390,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
+        <f>E7/E$2</f>
         <v>25.329321428571433</v>
       </c>
       <c r="F36" s="5">
@@ -12460,11 +12465,11 @@
         <v>8</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ref="D38:L42" si="2">D9/D$2</f>
+        <f>D9/D$2</f>
         <v>6.2257971428571448</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D38:L42" si="2">E9/E$2</f>
         <v>5.4964428571428581</v>
       </c>
       <c r="F38" s="5">
@@ -12537,40 +12542,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5">
+      <c r="D40" s="93"/>
+      <c r="E40" s="93">
         <f t="shared" si="2"/>
         <v>5.3742976190476197</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="93">
         <f t="shared" si="2"/>
         <v>4.9161453571428551</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="93">
         <f t="shared" si="2"/>
         <v>4.6707172619047626</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="93">
         <f t="shared" si="2"/>
         <v>4.5072877976190471</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="93">
         <f t="shared" si="2"/>
         <v>4.5272715773809535</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="93">
         <f t="shared" si="2"/>
         <v>4.4112886904761908</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12610,40 +12615,40 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="93">
         <f t="shared" si="2"/>
         <v>6.1213733333333353</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="93">
         <f t="shared" si="2"/>
         <v>5.2558354761904758</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="93">
         <f t="shared" si="2"/>
         <v>4.8710342857142841</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="93">
         <f t="shared" si="2"/>
         <v>4.611967857142858</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="93">
         <f t="shared" si="2"/>
         <v>4.6773800595238111</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="93">
         <f t="shared" si="2"/>
         <v>4.4763162202380942</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="93">
         <f t="shared" si="2"/>
         <v>4.4181778273809531</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
@@ -14234,6 +14239,418 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>16</v>
+      </c>
+      <c r="H133">
+        <v>32</v>
+      </c>
+      <c r="I133">
+        <v>64</v>
+      </c>
+      <c r="J133">
+        <v>128</v>
+      </c>
+      <c r="K133">
+        <v>256</v>
+      </c>
+      <c r="L133">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>42</v>
+      </c>
+      <c r="E134">
+        <v>84</v>
+      </c>
+      <c r="F134">
+        <v>168</v>
+      </c>
+      <c r="G134">
+        <v>336</v>
+      </c>
+      <c r="H134">
+        <v>672</v>
+      </c>
+      <c r="I134">
+        <v>1344</v>
+      </c>
+      <c r="J134">
+        <v>2688</v>
+      </c>
+      <c r="K134">
+        <v>5376</v>
+      </c>
+      <c r="L134">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f>D112/SQRT(D$111)</f>
+        <v>6.574684967602682</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:J135" si="4">E112/SQRT(E$111)</f>
+        <v>3.2409775696444845</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>6.224409102218563</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>8.477493397837593</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="4"/>
+        <v>7.0189380826391172</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="4"/>
+        <v>38.797228020789774</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="4"/>
+        <v>7.5602773482422689</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:J136" si="5">D113/SQRT(D$111)</f>
+        <v>0.60576585364061475</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>0.32411535571513206</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>3.0774394180292761</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="5"/>
+        <v>0.41340893833175213</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>0.97157635380807783</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>2.3563789536043087</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="5"/>
+        <v>1.2028847332803732</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ref="D137:J137" si="6">D114/SQRT(D$111)</f>
+        <v>0.42887217852474274</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="6"/>
+        <v>0.52018332141628687</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="6"/>
+        <v>0.46753955793993135</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="6"/>
+        <v>0.28564445659843168</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="6"/>
+        <v>0.34888905826255612</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="6"/>
+        <v>0.42586490537845334</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="6"/>
+        <v>0.79440643340012085</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <f t="shared" ref="D138:J138" si="7">D115/SQRT(D$111)</f>
+        <v>0.99154877975841893</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="7"/>
+        <v>0.7120828893754807</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="7"/>
+        <v>0.32549211543769607</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="7"/>
+        <v>0.51313076798718649</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="7"/>
+        <v>0.82707838482395335</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="7"/>
+        <v>0.51529667774755528</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="7"/>
+        <v>2.9413086337137546</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ref="D139:J139" si="8">E116/SQRT(E$111)</f>
+        <v>0.32238762674354232</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="8"/>
+        <v>0.70937959129677064</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="8"/>
+        <v>0.47233076660162576</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="8"/>
+        <v>2.7256066474168654</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="8"/>
+        <v>0.83440292575409847</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="8"/>
+        <v>23.338287223493342</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ref="D140:J140" si="9">E117/SQRT(E$111)</f>
+        <v>0.48722070377924886</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="9"/>
+        <v>0.53107945022200453</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="9"/>
+        <v>0.90233857690484898</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="9"/>
+        <v>2.5550941344161204</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="9"/>
+        <v>0.88920382207305704</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="9"/>
+        <v>23.741991214135847</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ref="D141:J141" si="10">D118/SQRT(D$111)</f>
+        <v>0.66397608085694493</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="10"/>
+        <v>0.52164440867129647</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="10"/>
+        <v>0.35902977336322994</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="10"/>
+        <v>0.24929392676105586</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="10"/>
+        <v>0.38357439440744734</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="10"/>
+        <v>1.4786899327105958</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="10"/>
+        <v>0.15762708640860773</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <f t="shared" ref="D142:J142" si="11">D119/SQRT(D$111)</f>
+        <v>1.6697532635945624</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="11"/>
+        <v>6.3165659613638212</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="11"/>
+        <v>27.065194395122891</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="11"/>
+        <v>15.139915052000251</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="11"/>
+        <v>16.685635693602375</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="11"/>
+        <v>12.32489640627487</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="11"/>
+        <v>1.3674631252908616</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="23">
+        <f t="shared" ref="D143:J143" si="12">E120/SQRT(E$111)</f>
+        <v>0.58473926274386601</v>
+      </c>
+      <c r="F143" s="23">
+        <f t="shared" si="12"/>
+        <v>0.49026888394229118</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" si="12"/>
+        <v>0.27905133608949684</v>
+      </c>
+      <c r="H143" s="23">
+        <f t="shared" si="12"/>
+        <v>0.28534493084880042</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="12"/>
+        <v>0.50480523584084724</v>
+      </c>
+      <c r="J143" s="23">
+        <f t="shared" si="12"/>
+        <v>0.23439799700064987</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ref="D144:J144" si="13">D121/SQRT(D$111)</f>
+        <v>0.72525180975290671</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="13"/>
+        <v>0.35598024547318102</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="13"/>
+        <v>0.45644465796402239</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="13"/>
+        <v>1.0571654103534156</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="13"/>
+        <v>2.6521125727345489</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="13"/>
+        <v>4.4057974670971687</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="13"/>
+        <v>3.1569049357419274</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="92">
+        <f t="shared" ref="D145:J145" si="14">D122/SQRT(D$111)</f>
+        <v>0.11129987971616141</v>
+      </c>
+      <c r="E145" s="92">
+        <f t="shared" si="14"/>
+        <v>0.21693413829366728</v>
+      </c>
+      <c r="F145" s="92">
+        <f t="shared" si="14"/>
+        <v>0.16932841362338072</v>
+      </c>
+      <c r="G145" s="92">
+        <f t="shared" si="14"/>
+        <v>0.23512440292038322</v>
+      </c>
+      <c r="H145" s="92">
+        <f t="shared" si="14"/>
+        <v>1.0559711244352599</v>
+      </c>
+      <c r="I145" s="92">
+        <f t="shared" si="14"/>
+        <v>0.69564113964625951</v>
+      </c>
+      <c r="J145" s="92">
+        <f t="shared" si="14"/>
+        <v>0.44782171229482215</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D43:D50">
@@ -16955,13 +17372,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J64" sqref="G58:J64"/>
+      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19690,6 +20107,451 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>16</v>
+      </c>
+      <c r="H133">
+        <v>32</v>
+      </c>
+      <c r="I133">
+        <v>64</v>
+      </c>
+      <c r="J133">
+        <v>128</v>
+      </c>
+      <c r="K133">
+        <v>256</v>
+      </c>
+      <c r="L133">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>42</v>
+      </c>
+      <c r="E134">
+        <v>84</v>
+      </c>
+      <c r="F134">
+        <v>168</v>
+      </c>
+      <c r="G134">
+        <v>336</v>
+      </c>
+      <c r="H134">
+        <v>672</v>
+      </c>
+      <c r="I134">
+        <v>1344</v>
+      </c>
+      <c r="J134">
+        <v>2688</v>
+      </c>
+      <c r="K134">
+        <v>5376</v>
+      </c>
+      <c r="L134">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f>D112/SQRT(D$111)</f>
+        <v>12.286741454967263</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:J135" si="24">E112/SQRT(E$111)</f>
+        <v>11.320902496477922</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="24"/>
+        <v>42.341369296052918</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="24"/>
+        <v>5.6777029817149955</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="24"/>
+        <v>19.124136899929894</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="24"/>
+        <v>3.2136372448383415</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="24"/>
+        <v>7.0163175248106038</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:J140" si="25">D113/SQRT(D$111)</f>
+        <v>1.7454365861968673</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="25"/>
+        <v>1.2624100420530999</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="25"/>
+        <v>0.86084776380774397</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="25"/>
+        <v>0.70699478776045688</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="25"/>
+        <v>1.00905544035814</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="25"/>
+        <v>1.2042601475921026</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="25"/>
+        <v>1.3010309414744912</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="25"/>
+        <v>0.23880703277985754</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="25"/>
+        <v>0.77577697501064002</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="25"/>
+        <v>0.31293868972381822</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="25"/>
+        <v>0.39956211771431327</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="25"/>
+        <v>2.6298493876321563</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="25"/>
+        <v>1.0853574645036015</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="25"/>
+        <v>0.76199848759976785</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="25"/>
+        <v>0.50148366447611059</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="25"/>
+        <v>0.36136007032572548</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="25"/>
+        <v>0.64665122936940267</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="25"/>
+        <v>0.46355918980433697</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="25"/>
+        <v>0.57218213056401346</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="25"/>
+        <v>1.1082903490278557</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="25"/>
+        <v>0.91810514079733796</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="25"/>
+        <v>0.18633824859955289</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="25"/>
+        <v>0.13188474685583118</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="25"/>
+        <v>0.2179257814715827</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="25"/>
+        <v>0.65482885789380629</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="25"/>
+        <v>0.88941043756111438</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="25"/>
+        <v>1.0319467491113576</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="25"/>
+        <v>0.63989015728713927</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="25"/>
+        <v>0.97258840392703305</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="25"/>
+        <v>0.27036559680339028</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="25"/>
+        <v>0.64249636277453448</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="25"/>
+        <v>0.4080380250618153</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="25"/>
+        <v>0.56147769305653084</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ref="D141:J143" si="26">D118/SQRT(D$111)</f>
+        <v>0.59079712274970775</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="26"/>
+        <v>0.54098831229133015</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="26"/>
+        <v>0.47840692285804831</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="26"/>
+        <v>0.30355019609758127</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="26"/>
+        <v>0.49654901926429507</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="26"/>
+        <v>0.69317308658697474</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="26"/>
+        <v>0.6271043494870554</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="26"/>
+        <v>0.62110210789710329</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="26"/>
+        <v>0.39931166890888609</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="26"/>
+        <v>0.61733065520198049</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="26"/>
+        <v>0.30489554991168161</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="26"/>
+        <v>0.5061211158827762</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="26"/>
+        <v>0.42285329108085862</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="26"/>
+        <v>0.51061759165037945</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="23">
+        <f t="shared" si="26"/>
+        <v>0.23691214461325133</v>
+      </c>
+      <c r="F143" s="23">
+        <f t="shared" si="26"/>
+        <v>0.19692687762625685</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" si="26"/>
+        <v>0.23797967174400958</v>
+      </c>
+      <c r="H143" s="23">
+        <f t="shared" si="26"/>
+        <v>0.11327068689794952</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="26"/>
+        <v>0.14530348995102207</v>
+      </c>
+      <c r="J143" s="23">
+        <f t="shared" si="26"/>
+        <v>0.1147558581852503</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ref="D144:J146" si="27">D121/SQRT(D$111)</f>
+        <v>0.45948955315033363</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="27"/>
+        <v>0.55663057486386791</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="27"/>
+        <v>0.42396312162891386</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="27"/>
+        <v>0.9265903896159946</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="27"/>
+        <v>20.943947964062094</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="27"/>
+        <v>0.98392731339828521</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="27"/>
+        <v>2.1872961466290404</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="92">
+        <f t="shared" si="27"/>
+        <v>0.33607422035449885</v>
+      </c>
+      <c r="E145" s="92">
+        <f t="shared" si="27"/>
+        <v>0.29770925470398107</v>
+      </c>
+      <c r="F145" s="92">
+        <f t="shared" si="27"/>
+        <v>0.16469222921558863</v>
+      </c>
+      <c r="G145" s="92">
+        <f t="shared" si="27"/>
+        <v>8.9559509719961891E-2</v>
+      </c>
+      <c r="H145" s="92">
+        <f t="shared" si="27"/>
+        <v>0.15570280695230479</v>
+      </c>
+      <c r="I145" s="92">
+        <f t="shared" si="27"/>
+        <v>0.11884776922741683</v>
+      </c>
+      <c r="J145" s="92">
+        <f t="shared" si="27"/>
+        <v>2.6294315817057936</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="92">
+        <f t="shared" si="27"/>
+        <v>0.25499764466433483</v>
+      </c>
+      <c r="E146" s="92">
+        <f t="shared" si="27"/>
+        <v>0.35426163984699149</v>
+      </c>
+      <c r="F146" s="92">
+        <f t="shared" si="27"/>
+        <v>0.37278238131649916</v>
+      </c>
+      <c r="G146" s="92">
+        <f t="shared" si="27"/>
+        <v>0.20868047966125933</v>
+      </c>
+      <c r="H146" s="92">
+        <f t="shared" si="27"/>
+        <v>0.12200849644321168</v>
+      </c>
+      <c r="I146" s="92">
+        <f t="shared" si="27"/>
+        <v>0.13946295767904365</v>
+      </c>
+      <c r="J146" s="92">
+        <f t="shared" si="27"/>
+        <v>0.23047000833116318</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D44:D50">
@@ -22549,7 +23411,7 @@
   <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D58" sqref="D58:F64"/>
@@ -25137,8 +25999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:J38"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25228,25 +26090,25 @@
       <c r="M4" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="89">
+      <c r="N4" s="75">
         <v>42</v>
       </c>
-      <c r="O4" s="90">
+      <c r="O4" s="76">
         <v>84</v>
       </c>
-      <c r="P4" s="90">
+      <c r="P4" s="76">
         <v>168</v>
       </c>
-      <c r="Q4" s="90">
+      <c r="Q4" s="76">
         <v>336</v>
       </c>
-      <c r="R4" s="90">
+      <c r="R4" s="76">
         <v>672</v>
       </c>
-      <c r="S4" s="90">
+      <c r="S4" s="76">
         <v>1344</v>
       </c>
-      <c r="T4" s="91">
+      <c r="T4" s="77">
         <v>2688</v>
       </c>
     </row>
@@ -25275,7 +26137,7 @@
       <c r="J5" s="64">
         <v>15.657086618097543</v>
       </c>
-      <c r="M5" s="88" t="s">
+      <c r="M5" s="74" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="60">
@@ -25517,7 +26379,7 @@
       <c r="J10" s="68">
         <v>15.774984235449701</v>
       </c>
-      <c r="M10" s="87" t="s">
+      <c r="M10" s="73" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="66">
@@ -30732,7 +31594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K88" sqref="D88:K89"/>
     </sheetView>
   </sheetViews>
@@ -30858,7 +31720,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A4-1,0)</f>
         <v>non CUDA AVX Time</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -30892,7 +31754,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A5-1,0)</f>
         <v>367570.34</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="90">
         <v>5</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -30935,7 +31797,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A5-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
@@ -30967,7 +31829,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A5-1+$A$1,0)</f>
         <v>1357.5706663296471</v>
       </c>
-      <c r="O5" s="86"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
@@ -31008,7 +31870,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A6-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -31042,7 +31904,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A6-1,0)</f>
         <v>30206.626000000011</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="90">
         <v>100</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -31078,7 +31940,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="86"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
@@ -31110,7 +31972,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A6-1+$A$1,0)</f>
         <v>64.000995899131425</v>
       </c>
-      <c r="O7" s="86"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
@@ -31151,7 +32013,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A8-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -31185,7 +32047,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A8-1,0)</f>
         <v>30090.163999999993</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="90">
         <v>1000</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -31212,7 +32074,7 @@
       <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="86"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
@@ -31244,7 +32106,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A8-1+$A$1,0)</f>
         <v>31.215446024773321</v>
       </c>
-      <c r="O9" s="86"/>
+      <c r="O9" s="91"/>
       <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
@@ -31276,7 +32138,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A10-1,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
@@ -31308,7 +32170,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A10-1,0)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="90">
         <v>10000</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -31332,7 +32194,7 @@
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="86"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
@@ -31364,7 +32226,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A10-1+$A$1,0)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="86"/>
+      <c r="O11" s="91"/>
       <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
@@ -31393,7 +32255,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A12-1,0)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
@@ -31425,7 +32287,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A12-1,0)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="85"/>
+      <c r="O12" s="90"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -31436,7 +32298,7 @@
       <c r="W12" s="13"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="86"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
@@ -31468,7 +32330,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A12-1+$A$1,0)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="86"/>
+      <c r="O13" s="91"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -31486,7 +32348,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A14-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -31522,7 +32384,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="86"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
@@ -31563,7 +32425,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A16-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -31599,7 +32461,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="86"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
@@ -31640,7 +32502,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A18-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -31676,7 +32538,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="86"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
@@ -31717,7 +32579,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A20-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -31753,7 +32615,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="86"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
@@ -31794,7 +32656,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A22-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -31830,7 +32692,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
@@ -31871,7 +32733,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A24-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -31907,7 +32769,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="86"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
@@ -31948,7 +32810,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A26-1,0)</f>
         <v>non CUDA AVX Time</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="90" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -31984,7 +32846,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="86"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
@@ -32025,7 +32887,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A28-1,0)</f>
         <v>non CUDA AVX_OMP Time</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="90" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -32061,7 +32923,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="86"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
@@ -32102,7 +32964,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A30-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -32138,7 +33000,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="86"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
@@ -32179,7 +33041,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A32-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -32215,7 +33077,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="86"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
@@ -32256,7 +33118,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A34-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -32292,7 +33154,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="86"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -32333,7 +33195,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A36-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -32369,7 +33231,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="86"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
@@ -32410,7 +33272,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A38-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -32446,7 +33308,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
@@ -32487,7 +33349,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A40-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -32523,7 +33385,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="86"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="1" t="s">
         <v>19</v>
       </c>
@@ -32564,7 +33426,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A42-1,0)</f>
         <v>non CUDA AVX Time</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="90" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -32600,7 +33462,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="86"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="1" t="s">
         <v>19</v>
       </c>
@@ -32641,7 +33503,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A44-1,0)</f>
         <v>non CUDA AVX_OMP Time</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="90" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -32677,7 +33539,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="86"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
@@ -32718,7 +33580,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A46-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -32754,7 +33616,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="86"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="1" t="s">
         <v>19</v>
       </c>
@@ -32795,7 +33657,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A48-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -32831,7 +33693,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="86"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="1" t="s">
         <v>19</v>
       </c>
@@ -32872,7 +33734,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A50-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -32908,7 +33770,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="86"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
@@ -32949,7 +33811,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A52-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -32985,7 +33847,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="86"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
@@ -33026,7 +33888,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A54-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -33062,7 +33924,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="86"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
@@ -33103,7 +33965,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A56-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -33139,7 +34001,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="86"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
@@ -33180,7 +34042,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A58-1,0)</f>
         <v>non CUDA AVX Time</v>
       </c>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="90" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -33216,7 +34078,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="86"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
@@ -33257,7 +34119,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A60-1,0)</f>
         <v>non CUDA AVX_OMP Time</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="90" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -33293,7 +34155,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="86"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="1" t="s">
         <v>19</v>
       </c>
@@ -33334,7 +34196,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A62-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -33370,7 +34232,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="86"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
@@ -33411,7 +34273,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A64-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -33447,7 +34309,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="86"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
@@ -33488,7 +34350,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A66-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -33524,7 +34386,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="86"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="1" t="s">
         <v>19</v>
       </c>
@@ -33559,11 +34421,11 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="74"/>
-      <c r="C74" s="80" t="s">
+      <c r="B74" s="79"/>
+      <c r="C74" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="81"/>
+      <c r="D74" s="86"/>
       <c r="E74" s="41">
         <v>2</v>
       </c>
@@ -33587,11 +34449,11 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="74"/>
-      <c r="C75" s="82" t="s">
+      <c r="B75" s="79"/>
+      <c r="C75" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D75" s="83"/>
+      <c r="D75" s="88"/>
       <c r="E75" s="44">
         <v>42</v>
       </c>
@@ -33615,8 +34477,8 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="73"/>
-      <c r="C76" s="84" t="s">
+      <c r="B76" s="78"/>
+      <c r="C76" s="89" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="37" t="s">
@@ -33652,8 +34514,8 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="73"/>
-      <c r="C77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="83"/>
       <c r="D77" s="38" t="s">
         <v>19</v>
       </c>
@@ -33687,8 +34549,8 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="73"/>
-      <c r="C78" s="77" t="s">
+      <c r="B78" s="78"/>
+      <c r="C78" s="82" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="38" t="s">
@@ -33724,8 +34586,8 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="73"/>
-      <c r="C79" s="79"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="84"/>
       <c r="D79" s="39" t="s">
         <v>19</v>
       </c>
@@ -33759,8 +34621,8 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="73"/>
-      <c r="C80" s="84" t="s">
+      <c r="B80" s="78"/>
+      <c r="C80" s="89" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="37" t="s">
@@ -33796,8 +34658,8 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="73"/>
-      <c r="C81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="83"/>
       <c r="D81" s="38" t="s">
         <v>19</v>
       </c>
@@ -33831,8 +34693,8 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="73"/>
-      <c r="C82" s="77" t="s">
+      <c r="B82" s="78"/>
+      <c r="C82" s="82" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="38" t="s">
@@ -33868,8 +34730,8 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="73"/>
-      <c r="C83" s="78"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="83"/>
       <c r="D83" s="38" t="s">
         <v>19</v>
       </c>
@@ -33903,8 +34765,8 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="73"/>
-      <c r="C84" s="77" t="s">
+      <c r="B84" s="78"/>
+      <c r="C84" s="82" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="38" t="s">
@@ -33940,8 +34802,8 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="73"/>
-      <c r="C85" s="78"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="83"/>
       <c r="D85" s="38" t="s">
         <v>19</v>
       </c>
@@ -33975,8 +34837,8 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="73"/>
-      <c r="C86" s="77" t="s">
+      <c r="B86" s="78"/>
+      <c r="C86" s="82" t="s">
         <v>32</v>
       </c>
       <c r="D86" s="38" t="s">
@@ -34012,8 +34874,8 @@
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="73"/>
-      <c r="C87" s="78"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="83"/>
       <c r="D87" s="38" t="s">
         <v>19</v>
       </c>
@@ -34047,8 +34909,8 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="73"/>
-      <c r="C88" s="75" t="s">
+      <c r="B88" s="78"/>
+      <c r="C88" s="80" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="40" t="s">
@@ -34084,8 +34946,8 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="73"/>
-      <c r="C89" s="76"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="81"/>
       <c r="D89" s="40" t="s">
         <v>19</v>
       </c>
@@ -34119,8 +34981,8 @@
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="73"/>
-      <c r="C90" s="77" t="s">
+      <c r="B90" s="78"/>
+      <c r="C90" s="82" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="38" t="s">
@@ -34156,8 +35018,8 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="73"/>
-      <c r="C91" s="78"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="83"/>
       <c r="D91" s="38" t="s">
         <v>19</v>
       </c>
@@ -34191,8 +35053,8 @@
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="73"/>
-      <c r="C92" s="77" t="s">
+      <c r="B92" s="78"/>
+      <c r="C92" s="82" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="38" t="s">
@@ -34228,8 +35090,8 @@
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="73"/>
-      <c r="C93" s="78"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="83"/>
       <c r="D93" s="38" t="s">
         <v>19</v>
       </c>
@@ -34263,8 +35125,8 @@
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="73"/>
-      <c r="C94" s="77" t="s">
+      <c r="B94" s="78"/>
+      <c r="C94" s="82" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="38" t="s">
@@ -34300,8 +35162,8 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="73"/>
-      <c r="C95" s="79"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="84"/>
       <c r="D95" s="39" t="s">
         <v>19</v>
       </c>
@@ -34399,8 +35261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34525,7 +35387,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A4-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -34559,7 +35421,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A5-1,0)</f>
         <v>835652.72</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="90" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -34602,7 +35464,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A5-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
@@ -34634,7 +35496,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A5-1+$A$1,0)</f>
         <v>2479.4143158927041</v>
       </c>
-      <c r="O5" s="86"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
@@ -34703,7 +35565,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A6-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -34737,7 +35599,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A6-1,0)</f>
         <v>53372.171999999977</v>
       </c>
-      <c r="O6" s="85" t="s">
+      <c r="O6" s="90" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -34773,7 +35635,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C7" s="86"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
@@ -34805,7 +35667,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A6-1+$A$1,0)</f>
         <v>132.16203636458613</v>
       </c>
-      <c r="O7" s="86"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
@@ -34874,7 +35736,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A8-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -34908,7 +35770,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A8-1,0)</f>
         <v>52481.614000000001</v>
       </c>
-      <c r="O8" s="85" t="s">
+      <c r="O8" s="90" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -34944,7 +35806,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C9" s="86"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
@@ -34976,7 +35838,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A8-1+$A$1,0)</f>
         <v>66.672073313223166</v>
       </c>
-      <c r="O9" s="86"/>
+      <c r="O9" s="91"/>
       <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
@@ -35045,7 +35907,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A10-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -35079,7 +35941,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A10-1,0)</f>
         <v>52241.043999999994</v>
       </c>
-      <c r="O10" s="85" t="s">
+      <c r="O10" s="90" t="s">
         <v>36</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -35115,7 +35977,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C11" s="86"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
@@ -35147,7 +36009,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A10-1+$A$1,0)</f>
         <v>32.116369403608751</v>
       </c>
-      <c r="O11" s="86"/>
+      <c r="O11" s="91"/>
       <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
@@ -35216,7 +36078,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A12-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -35250,7 +36112,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A12-1,0)</f>
         <v>54374.391999999993</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="90" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -35286,7 +36148,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C13" s="86"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
@@ -35318,7 +36180,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A12-1+$A$1,0)</f>
         <v>19.86815852104835</v>
       </c>
-      <c r="O13" s="86"/>
+      <c r="O13" s="91"/>
       <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
@@ -35387,7 +36249,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A14-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -35423,7 +36285,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C15" s="86"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
@@ -35464,7 +36326,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A16-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
@@ -35498,7 +36360,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="86"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
@@ -35539,7 +36401,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A18-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
@@ -35573,7 +36435,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="86"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
@@ -35614,7 +36476,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A20-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -35650,7 +36512,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="86"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
@@ -35691,7 +36553,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A22-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -35727,7 +36589,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
@@ -35768,7 +36630,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A24-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -35804,7 +36666,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="86"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
@@ -35845,7 +36707,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A26-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -35881,7 +36743,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="86"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
@@ -35922,7 +36784,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A28-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -35958,7 +36820,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="86"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
@@ -35999,7 +36861,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A30-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -36035,7 +36897,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="86"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
@@ -36076,7 +36938,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A32-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C32" s="85"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
@@ -36110,7 +36972,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="86"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
@@ -36151,7 +37013,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A34-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C34" s="85"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="1" t="s">
         <v>0</v>
       </c>
@@ -36185,7 +37047,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="86"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -36226,7 +37088,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A36-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -36262,7 +37124,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="86"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
@@ -36303,7 +37165,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A38-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -36339,7 +37201,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
@@ -36380,7 +37242,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A40-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -36416,7 +37278,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="86"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="1" t="s">
         <v>19</v>
       </c>
@@ -36457,7 +37319,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A42-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -36493,7 +37355,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="86"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="1" t="s">
         <v>19</v>
       </c>
@@ -36534,7 +37396,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A44-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -36570,7 +37432,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="86"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
@@ -36611,7 +37473,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A46-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -36647,7 +37509,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="86"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="1" t="s">
         <v>19</v>
       </c>
@@ -36688,7 +37550,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A48-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C48" s="85"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="1" t="s">
         <v>0</v>
       </c>
@@ -36722,7 +37584,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="86"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="1" t="s">
         <v>19</v>
       </c>
@@ -36763,7 +37625,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A50-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C50" s="85"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
@@ -36797,7 +37659,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="86"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
@@ -36838,7 +37700,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A52-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -36874,7 +37736,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="86"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
@@ -36915,7 +37777,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A54-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -36951,7 +37813,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="86"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
@@ -36992,7 +37854,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A56-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -37028,7 +37890,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="86"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
@@ -37069,7 +37931,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A58-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -37105,7 +37967,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="86"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
@@ -37146,7 +38008,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A60-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -37182,7 +38044,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="86"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="1" t="s">
         <v>19</v>
       </c>
@@ -37223,7 +38085,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A62-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -37259,7 +38121,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="86"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
@@ -37300,7 +38162,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A64-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C64" s="85"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="1" t="s">
         <v>0</v>
       </c>
@@ -37334,7 +38196,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="86"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
@@ -37375,7 +38237,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A66-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C66" s="85"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
@@ -37409,7 +38271,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="86"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="1" t="s">
         <v>19</v>
       </c>
@@ -37450,7 +38312,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A68-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -37486,7 +38348,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="86"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="1" t="s">
         <v>19</v>
       </c>
@@ -37527,7 +38389,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A70-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -37563,7 +38425,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C71" s="86"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="1" t="s">
         <v>19</v>
       </c>
@@ -37604,7 +38466,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A72-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C72" s="85" t="s">
+      <c r="C72" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -37640,7 +38502,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C73" s="86"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="1" t="s">
         <v>19</v>
       </c>
@@ -37681,7 +38543,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A74-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C74" s="85" t="s">
+      <c r="C74" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -37717,7 +38579,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C75" s="86"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
@@ -37758,7 +38620,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A76-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -37794,7 +38656,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="86"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
@@ -37835,7 +38697,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A78-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="C78" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -37871,7 +38733,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="86"/>
+      <c r="C79" s="91"/>
       <c r="D79" s="1" t="s">
         <v>19</v>
       </c>
@@ -37912,7 +38774,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A80-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C80" s="85"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
@@ -37946,7 +38808,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="86"/>
+      <c r="C81" s="91"/>
       <c r="D81" s="1" t="s">
         <v>19</v>
       </c>
@@ -37987,7 +38849,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A82-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C82" s="85"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
@@ -38021,7 +38883,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C83" s="86"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="1" t="s">
         <v>19</v>
       </c>
@@ -38122,13 +38984,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12:J13"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38849,7 +39711,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
+        <f>E7/E$2</f>
         <v>22.460257142857145</v>
       </c>
       <c r="F36" s="5">
@@ -40698,6 +41560,418 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>16</v>
+      </c>
+      <c r="H133">
+        <v>32</v>
+      </c>
+      <c r="I133">
+        <v>64</v>
+      </c>
+      <c r="J133">
+        <v>128</v>
+      </c>
+      <c r="K133">
+        <v>256</v>
+      </c>
+      <c r="L133">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>42</v>
+      </c>
+      <c r="E134">
+        <v>84</v>
+      </c>
+      <c r="F134">
+        <v>168</v>
+      </c>
+      <c r="G134">
+        <v>336</v>
+      </c>
+      <c r="H134">
+        <v>672</v>
+      </c>
+      <c r="I134">
+        <v>1344</v>
+      </c>
+      <c r="J134">
+        <v>2688</v>
+      </c>
+      <c r="K134">
+        <v>5376</v>
+      </c>
+      <c r="L134">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f>D112/SQRT(D$111)</f>
+        <v>3.527492673004625</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:J135" si="4">E112/SQRT(E$111)</f>
+        <v>5.5690620931073607</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>5.8924842337198804</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>8.8627543294148694</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="4"/>
+        <v>142.28163842714972</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="4"/>
+        <v>15.866521823487211</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="4"/>
+        <v>47.822741860776574</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:J140" si="5">D113/SQRT(D$111)</f>
+        <v>0.46202670078640834</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>0.31914362302252969</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>0.49868512883419081</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="5"/>
+        <v>0.33336909794068603</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>0.31848155087592289</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>0.99522039258121109</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="5"/>
+        <v>2.5491306186084315</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>0.29705624796173363</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>0.22095242395097958</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>0.30090066942493354</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="5"/>
+        <v>0.33760535133132391</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="5"/>
+        <v>0.41917088701347976</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="5"/>
+        <v>0.64789945547592487</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="5"/>
+        <v>1.2859655326435653</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>0.31532584984857559</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>0.21963490942489083</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>0.30830054896696713</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="5"/>
+        <v>0.42394171624253557</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
+        <v>0.39688480279547173</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="5"/>
+        <v>0.63992161356945276</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="5"/>
+        <v>0.61945792344960771</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>0.27095352851203097</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>0.30564852759451233</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="5"/>
+        <v>0.35628604471007086</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="5"/>
+        <v>0.5069649507161873</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="5"/>
+        <v>0.47729273507687814</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="5"/>
+        <v>0.38321542717195523</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>1.6372963480122307</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>0.29282486323835277</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="5"/>
+        <v>0.38657438234747765</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="5"/>
+        <v>1.4543789605972719</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="5"/>
+        <v>0.60141968723942441</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="5"/>
+        <v>0.49772639837397847</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ref="D141:J143" si="6">D118/SQRT(D$111)</f>
+        <v>1.739368484289507</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="6"/>
+        <v>1.2202629839135717</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="6"/>
+        <v>0.45663209954226119</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="6"/>
+        <v>0.33978327477477049</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="6"/>
+        <v>0.22642593292592042</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="6"/>
+        <v>0.22968792304849947</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="6"/>
+        <v>0.66707820244512217</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="6"/>
+        <v>0.76842656641911233</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="6"/>
+        <v>0.46788123998559045</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="6"/>
+        <v>0.40751734451673682</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="6"/>
+        <v>0.39513292765009267</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="6"/>
+        <v>11.152175402482126</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="6"/>
+        <v>5.9851138839100626</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="6"/>
+        <v>0.76306157951199083</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.76116320582294783</v>
+      </c>
+      <c r="F143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.38866521893441108</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.26276441592184169</v>
+      </c>
+      <c r="H143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.67747406692848933</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.57253487729205921</v>
+      </c>
+      <c r="J143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.21020561625188025</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ref="D144:J145" si="7">D121/SQRT(D$111)</f>
+        <v>0.69492876002199477</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="7"/>
+        <v>0.34708066666018733</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="7"/>
+        <v>0.39780488994500801</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>0.60884486334921095</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="7"/>
+        <v>0.2462797675740607</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="7"/>
+        <v>0.19486418995674976</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="7"/>
+        <v>4.641067239778744</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.63501840563473766</v>
+      </c>
+      <c r="E145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.39406103737202924</v>
+      </c>
+      <c r="F145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.48666055364957039</v>
+      </c>
+      <c r="G145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.17199446385470296</v>
+      </c>
+      <c r="H145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.61493373892816594</v>
+      </c>
+      <c r="I145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.93045250957209025</v>
+      </c>
+      <c r="J145" s="92">
+        <f t="shared" si="7"/>
+        <v>1.2539079406994291</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D43:D50">
@@ -40887,13 +42161,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12:J13"/>
+      <selection pane="bottomRight" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43457,6 +44731,418 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>16</v>
+      </c>
+      <c r="H133">
+        <v>32</v>
+      </c>
+      <c r="I133">
+        <v>64</v>
+      </c>
+      <c r="J133">
+        <v>128</v>
+      </c>
+      <c r="K133">
+        <v>256</v>
+      </c>
+      <c r="L133">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>42</v>
+      </c>
+      <c r="E134">
+        <v>84</v>
+      </c>
+      <c r="F134">
+        <v>168</v>
+      </c>
+      <c r="G134">
+        <v>336</v>
+      </c>
+      <c r="H134">
+        <v>672</v>
+      </c>
+      <c r="I134">
+        <v>1344</v>
+      </c>
+      <c r="J134">
+        <v>2688</v>
+      </c>
+      <c r="K134">
+        <v>5376</v>
+      </c>
+      <c r="L134">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f>D112/SQRT(D$111)</f>
+        <v>7.476417461929918</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:J135" si="4">E112/SQRT(E$111)</f>
+        <v>0.60277567018956546</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>5.6688523396061976</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>6.5969458091709905</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="4"/>
+        <v>165.03533660831886</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="4"/>
+        <v>12.695757678917973</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="4"/>
+        <v>193.18379751239829</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:J140" si="5">D113/SQRT(D$111)</f>
+        <v>1.6884113408348806</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>1.0878040858229581</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>0.62636630439503471</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="5"/>
+        <v>1.1893133378974279</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>0.88523244670331347</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>1.3225042283806374</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="5"/>
+        <v>2.4174549833531711</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>9.1929809710936922E-2</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>5.3991677298435565</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>0.70427392224332708</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="5"/>
+        <v>0.7906583411200574</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="5"/>
+        <v>2.084891830175609</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="5"/>
+        <v>1.3670478303755504</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="5"/>
+        <v>2.667207777266833</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>0.2670619242552727</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>0.6647204927007444</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>0.85239994489416349</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="5"/>
+        <v>0.98103359546365543</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
+        <v>1.5288078108881662</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="5"/>
+        <v>3.2530979451513855</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="5"/>
+        <v>2.7533316277380644</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>0.59405988464670212</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>0.82846169687030602</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="5"/>
+        <v>1.7905319670823858</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="5"/>
+        <v>1.6666870368080502</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="5"/>
+        <v>1.3159820688348431</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="5"/>
+        <v>2.2537071838579092</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>0.54016873834015988</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>0.74109017246079678</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="5"/>
+        <v>1.2138788782598262</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="5"/>
+        <v>3.0149444888947241</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="5"/>
+        <v>1.2021632255613215</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="5"/>
+        <v>2.243936571004681</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ref="D141:J143" si="6">D118/SQRT(D$111)</f>
+        <v>0.55357259613874576</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="6"/>
+        <v>0.4480589559949153</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="6"/>
+        <v>0.39058290833573345</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="6"/>
+        <v>0.80752542456268639</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="6"/>
+        <v>2.1983653868470912</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="6"/>
+        <v>2.7613714818106545</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="6"/>
+        <v>1.8554808147978796</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="6"/>
+        <v>1.2970655111370946</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="6"/>
+        <v>0.5879660654337644</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="6"/>
+        <v>3.0466298815104502</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="6"/>
+        <v>1.3523143430723983</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="6"/>
+        <v>21.716927179843076</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="6"/>
+        <v>11.759132012444322</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="6"/>
+        <v>9.617936160974331</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.62846153347997402</v>
+      </c>
+      <c r="F143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.71443337669232709</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" si="6"/>
+        <v>1.2739710442570973</v>
+      </c>
+      <c r="H143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.89420982791960002</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="6"/>
+        <v>1.7393172078089525</v>
+      </c>
+      <c r="J143" s="23">
+        <f t="shared" si="6"/>
+        <v>14.566465961448577</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ref="D144:J145" si="7">D121/SQRT(D$111)</f>
+        <v>0.70792488100461715</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="7"/>
+        <v>1.0677798255534146</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="7"/>
+        <v>0.42330571722366322</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>0.33272154806075738</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="7"/>
+        <v>2.5153553029343585</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="7"/>
+        <v>2.6649073236748158</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="7"/>
+        <v>2.5413601837777411</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.16026633503713003</v>
+      </c>
+      <c r="E145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.32969519762220778</v>
+      </c>
+      <c r="F145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.31424451730391961</v>
+      </c>
+      <c r="G145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.10005412380346954</v>
+      </c>
+      <c r="H145" s="92">
+        <f t="shared" si="7"/>
+        <v>2.0495151203794943</v>
+      </c>
+      <c r="I145" s="92">
+        <f t="shared" si="7"/>
+        <v>1.4878439657522888</v>
+      </c>
+      <c r="J145" s="92">
+        <f t="shared" si="7"/>
+        <v>1.8779777548526091</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D43:D50">
@@ -43646,13 +45332,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12:J13"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46309,6 +47995,418 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>16</v>
+      </c>
+      <c r="H133">
+        <v>32</v>
+      </c>
+      <c r="I133">
+        <v>64</v>
+      </c>
+      <c r="J133">
+        <v>128</v>
+      </c>
+      <c r="K133">
+        <v>256</v>
+      </c>
+      <c r="L133">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>42</v>
+      </c>
+      <c r="E134">
+        <v>84</v>
+      </c>
+      <c r="F134">
+        <v>168</v>
+      </c>
+      <c r="G134">
+        <v>336</v>
+      </c>
+      <c r="H134">
+        <v>672</v>
+      </c>
+      <c r="I134">
+        <v>1344</v>
+      </c>
+      <c r="J134">
+        <v>2688</v>
+      </c>
+      <c r="K134">
+        <v>5376</v>
+      </c>
+      <c r="L134">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f>D112/SQRT(D$111)</f>
+        <v>0.58616486413831737</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:J135" si="4">E112/SQRT(E$111)</f>
+        <v>0.5645149446359522</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>74.065030204109192</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>8.0106281677530973</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="4"/>
+        <v>1.0307127904579758</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="4"/>
+        <v>2.626218941632247</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="4"/>
+        <v>9.5556043229112717</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:J140" si="5">D113/SQRT(D$111)</f>
+        <v>0.11893862880684861</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>0.14672275758721551</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>0.11166450233253779</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="5"/>
+        <v>0.12101408849253865</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>0.64952077908100836</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>0.16112236199443811</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="5"/>
+        <v>0.57450150929588539</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>6.8935661365970291E-2</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>0.11207542200104119</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>0.10826755510382609</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="5"/>
+        <v>0.48135782886170358</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="5"/>
+        <v>8.0077785636051155E-2</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="5"/>
+        <v>0.14159237456633569</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="5"/>
+        <v>0.32867428499022167</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>7.297423109634249E-2</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>0.16184736759276039</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>0.12746606889929568</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="5"/>
+        <v>0.11606061366222953</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
+        <v>9.990462575710235E-2</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="5"/>
+        <v>0.16014735977946482</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="5"/>
+        <v>0.11788566393014088</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>0.15087740283696116</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>0.12285752732874504</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="5"/>
+        <v>9.7365278654764881E-2</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="5"/>
+        <v>0.2870433513704389</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="5"/>
+        <v>0.1580259232014376</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="5"/>
+        <v>0.12714970717950319</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>0.19031286694338378</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>0.13441043779052284</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="5"/>
+        <v>0.12741975645275722</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="5"/>
+        <v>0.15200644243048825</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="5"/>
+        <v>0.16903322926474137</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="5"/>
+        <v>0.14424463227967993</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ref="D141:J143" si="6">D118/SQRT(D$111)</f>
+        <v>7.5620421982029853E-2</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="6"/>
+        <v>0.20855230186633558</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="6"/>
+        <v>0.39951100661737293</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="6"/>
+        <v>0.18382498572370357</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="6"/>
+        <v>0.24518149948063692</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="6"/>
+        <v>0.33560048291535566</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="6"/>
+        <v>0.85401869576496026</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="6"/>
+        <v>0.27139493866916237</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="6"/>
+        <v>0.37124071013429194</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="6"/>
+        <v>2.2152562891555823</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="6"/>
+        <v>1.1833582238902645</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="6"/>
+        <v>2.1545947942903538</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="6"/>
+        <v>0.58296010027616785</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="6"/>
+        <v>8.8807669455214047</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="23">
+        <f t="shared" si="6"/>
+        <v>9.0220782138556124E-2</v>
+      </c>
+      <c r="F143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.1413988327463373</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.18892026073896875</v>
+      </c>
+      <c r="H143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.3639381143829632</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="6"/>
+        <v>0.38122314897028492</v>
+      </c>
+      <c r="J143" s="23">
+        <f t="shared" si="6"/>
+        <v>1.0517644511250686</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ref="D144:J145" si="7">D121/SQRT(D$111)</f>
+        <v>0.38188365172486771</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="7"/>
+        <v>0.25010052316160558</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="7"/>
+        <v>0.18633488442164198</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>0.14288604800544147</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="7"/>
+        <v>0.21175275331851839</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="7"/>
+        <v>1.5968268014508755</v>
+      </c>
+      <c r="J144" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="92">
+        <f t="shared" si="7"/>
+        <v>8.8549279854484131E-2</v>
+      </c>
+      <c r="E145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.10419011964967367</v>
+      </c>
+      <c r="F145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.11998302024825565</v>
+      </c>
+      <c r="G145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.22758993563207755</v>
+      </c>
+      <c r="H145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.19674938168770265</v>
+      </c>
+      <c r="I145" s="92">
+        <f t="shared" si="7"/>
+        <v>0.35964716929883761</v>
+      </c>
+      <c r="J145" s="92" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D43:D50">
@@ -46498,13 +48596,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14:J15"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49141,6 +51239,418 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>16</v>
+      </c>
+      <c r="H133">
+        <v>32</v>
+      </c>
+      <c r="I133">
+        <v>64</v>
+      </c>
+      <c r="J133">
+        <v>128</v>
+      </c>
+      <c r="K133">
+        <v>256</v>
+      </c>
+      <c r="L133">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>42</v>
+      </c>
+      <c r="E134">
+        <v>84</v>
+      </c>
+      <c r="F134">
+        <v>168</v>
+      </c>
+      <c r="G134">
+        <v>336</v>
+      </c>
+      <c r="H134">
+        <v>672</v>
+      </c>
+      <c r="I134">
+        <v>1344</v>
+      </c>
+      <c r="J134">
+        <v>2688</v>
+      </c>
+      <c r="K134">
+        <v>5376</v>
+      </c>
+      <c r="L134">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <f>D112/SQRT(D$111)</f>
+        <v>4.5862983652237412</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:J135" si="12">E112/SQRT(E$111)</f>
+        <v>1.8833384924557068</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="12"/>
+        <v>7.563124875392889</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="12"/>
+        <v>2.628811997314632</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="12"/>
+        <v>19.775046646595367</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="12"/>
+        <v>21.141548656871208</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="12"/>
+        <v>26.18471270311673</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:J140" si="13">D113/SQRT(D$111)</f>
+        <v>0.64225483042745446</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="13"/>
+        <v>0.44859120765846489</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="13"/>
+        <v>0.7684364873004581</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="13"/>
+        <v>0.56578563487165368</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="13"/>
+        <v>2.3189824041706304</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="13"/>
+        <v>0.88228943896688439</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="13"/>
+        <v>1.2344460085182607</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="13"/>
+        <v>0.69584586464477782</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="13"/>
+        <v>0.29406650734861567</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="13"/>
+        <v>0.17806789665473122</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="13"/>
+        <v>0.47856915998212896</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="13"/>
+        <v>0.65660538862316165</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="13"/>
+        <v>0.67709745655272313</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="13"/>
+        <v>0.60208098652292352</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="13"/>
+        <v>0.28090472507980346</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="13"/>
+        <v>0.42283516624084144</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="13"/>
+        <v>0.35051994538528986</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="13"/>
+        <v>0.58169931926153506</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="13"/>
+        <v>2.0973834788153805</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="13"/>
+        <v>1.1473700637890687</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="13"/>
+        <v>5.1670487368107345</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="13"/>
+        <v>0.31101451920371864</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="13"/>
+        <v>0.4154321861549003</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="13"/>
+        <v>0.4863482316258036</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="13"/>
+        <v>0.93166893418927144</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="13"/>
+        <v>0.97761620454177534</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="13"/>
+        <v>7.2326567382079023</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="13"/>
+        <v>0.31547752348260877</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="13"/>
+        <v>0.38098238061446715</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="13"/>
+        <v>0.40860737155122401</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="13"/>
+        <v>3.7743076807042373</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="13"/>
+        <v>1.0246130818299171</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="13"/>
+        <v>1.0237561458279902</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ref="D141:J143" si="14">D118/SQRT(D$111)</f>
+        <v>0.87737690971147908</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="14"/>
+        <v>0.33985343163883641</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="14"/>
+        <v>0.36589057027747152</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="14"/>
+        <v>0.1759052100629199</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="14"/>
+        <v>0.30291490019119238</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="14"/>
+        <v>0.26526290373108485</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="14"/>
+        <v>0.24513792271987844</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="14"/>
+        <v>0.61751813958528234</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="14"/>
+        <v>1.3389903834963415</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="14"/>
+        <v>0.91873421977132574</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="14"/>
+        <v>1.5572895034738872</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="14"/>
+        <v>2.8544665188920431</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="14"/>
+        <v>1.5154624388898041</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="14"/>
+        <v>0.45086082044425341</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="23">
+        <f t="shared" si="14"/>
+        <v>0.41724261946536589</v>
+      </c>
+      <c r="F143" s="23">
+        <f t="shared" si="14"/>
+        <v>2.2878606573112301</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" si="14"/>
+        <v>0.33551193618302172</v>
+      </c>
+      <c r="H143" s="23">
+        <f t="shared" si="14"/>
+        <v>0.66852298169369362</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="14"/>
+        <v>0.32983787118696156</v>
+      </c>
+      <c r="J143" s="23">
+        <f t="shared" si="14"/>
+        <v>0.30208891914191988</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ref="D144:J145" si="15">D121/SQRT(D$111)</f>
+        <v>1.0455517365897362</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="15"/>
+        <v>0.5786098643944928</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="15"/>
+        <v>0.88326704107321929</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="15"/>
+        <v>0.54048840369150075</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="15"/>
+        <v>1.8357891892257017</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="15"/>
+        <v>0.72400711610096302</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="15"/>
+        <v>0.74546382313043813</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="92">
+        <f t="shared" si="15"/>
+        <v>0.47286416551377192</v>
+      </c>
+      <c r="E145" s="92">
+        <f t="shared" si="15"/>
+        <v>0.27291309288597698</v>
+      </c>
+      <c r="F145" s="92">
+        <f t="shared" si="15"/>
+        <v>0.19738219081933392</v>
+      </c>
+      <c r="G145" s="92">
+        <f t="shared" si="15"/>
+        <v>0.29537032778336653</v>
+      </c>
+      <c r="H145" s="92">
+        <f t="shared" si="15"/>
+        <v>0.22040496648811364</v>
+      </c>
+      <c r="I145" s="92">
+        <f t="shared" si="15"/>
+        <v>0.17989797267327245</v>
+      </c>
+      <c r="J145" s="92">
+        <f t="shared" si="15"/>
+        <v>0.25537468035744471</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D43:D50">

--- a/TRACE_ITOG_EXCEL/Статья AVX.xlsx
+++ b/TRACE_ITOG_EXCEL/Статья AVX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ускорение 100" sheetId="15" r:id="rId1"/>
@@ -823,6 +823,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,14 +855,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1455,7 +1455,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1587,7 +1586,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -2443,7 +2441,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -3291,7 +3288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -12546,36 +12542,36 @@
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93">
+      <c r="D40" s="79"/>
+      <c r="E40" s="79">
         <f t="shared" si="2"/>
         <v>5.3742976190476197</v>
       </c>
-      <c r="F40" s="93">
+      <c r="F40" s="79">
         <f t="shared" si="2"/>
         <v>4.9161453571428551</v>
       </c>
-      <c r="G40" s="93">
+      <c r="G40" s="79">
         <f t="shared" si="2"/>
         <v>4.6707172619047626</v>
       </c>
-      <c r="H40" s="93">
+      <c r="H40" s="79">
         <f t="shared" si="2"/>
         <v>4.5072877976190471</v>
       </c>
-      <c r="I40" s="93">
+      <c r="I40" s="79">
         <f t="shared" si="2"/>
         <v>4.5272715773809535</v>
       </c>
-      <c r="J40" s="93">
+      <c r="J40" s="79">
         <f t="shared" si="2"/>
         <v>4.4112886904761908</v>
       </c>
-      <c r="K40" s="93">
+      <c r="K40" s="79">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="93">
+      <c r="L40" s="79">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12619,36 +12615,36 @@
       <c r="C42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="93">
+      <c r="D42" s="79">
         <f t="shared" si="2"/>
         <v>6.1213733333333353</v>
       </c>
-      <c r="E42" s="93">
+      <c r="E42" s="79">
         <f t="shared" si="2"/>
         <v>5.2558354761904758</v>
       </c>
-      <c r="F42" s="93">
+      <c r="F42" s="79">
         <f t="shared" si="2"/>
         <v>4.8710342857142841</v>
       </c>
-      <c r="G42" s="93">
+      <c r="G42" s="79">
         <f t="shared" si="2"/>
         <v>4.611967857142858</v>
       </c>
-      <c r="H42" s="93">
+      <c r="H42" s="79">
         <f t="shared" si="2"/>
         <v>4.6773800595238111</v>
       </c>
-      <c r="I42" s="93">
+      <c r="I42" s="79">
         <f t="shared" si="2"/>
         <v>4.4763162202380942</v>
       </c>
-      <c r="J42" s="93">
+      <c r="J42" s="79">
         <f t="shared" si="2"/>
         <v>4.4181778273809531</v>
       </c>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
@@ -14438,7 +14434,7 @@
         <v>6</v>
       </c>
       <c r="E139">
-        <f t="shared" ref="D139:J139" si="8">E116/SQRT(E$111)</f>
+        <f t="shared" ref="E139:J139" si="8">E116/SQRT(E$111)</f>
         <v>0.32238762674354232</v>
       </c>
       <c r="F139">
@@ -14467,7 +14463,7 @@
         <v>7</v>
       </c>
       <c r="E140">
-        <f t="shared" ref="D140:J140" si="9">E117/SQRT(E$111)</f>
+        <f t="shared" ref="E140:J140" si="9">E117/SQRT(E$111)</f>
         <v>0.48722070377924886</v>
       </c>
       <c r="F140">
@@ -14562,7 +14558,7 @@
         <v>10</v>
       </c>
       <c r="E143" s="23">
-        <f t="shared" ref="D143:J143" si="12">E120/SQRT(E$111)</f>
+        <f t="shared" ref="E143:J143" si="12">E120/SQRT(E$111)</f>
         <v>0.58473926274386601</v>
       </c>
       <c r="F143" s="23">
@@ -14619,35 +14615,35 @@
         <v>3.1569049357419274</v>
       </c>
     </row>
-    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="92" t="s">
+    <row r="145" spans="3:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="92">
+      <c r="D145" s="78">
         <f t="shared" ref="D145:J145" si="14">D122/SQRT(D$111)</f>
         <v>0.11129987971616141</v>
       </c>
-      <c r="E145" s="92">
+      <c r="E145" s="78">
         <f t="shared" si="14"/>
         <v>0.21693413829366728</v>
       </c>
-      <c r="F145" s="92">
+      <c r="F145" s="78">
         <f t="shared" si="14"/>
         <v>0.16932841362338072</v>
       </c>
-      <c r="G145" s="92">
+      <c r="G145" s="78">
         <f t="shared" si="14"/>
         <v>0.23512440292038322</v>
       </c>
-      <c r="H145" s="92">
+      <c r="H145" s="78">
         <f t="shared" si="14"/>
         <v>1.0559711244352599</v>
       </c>
-      <c r="I145" s="92">
+      <c r="I145" s="78">
         <f t="shared" si="14"/>
         <v>0.69564113964625951</v>
       </c>
-      <c r="J145" s="92">
+      <c r="J145" s="78">
         <f t="shared" si="14"/>
         <v>0.44782171229482215</v>
       </c>
@@ -14773,7 +14769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71 H68">
+  <conditionalFormatting sqref="H68 H71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -14785,7 +14781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71 I68">
+  <conditionalFormatting sqref="I68 I71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -14809,7 +14805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65 K62 K68:K73">
+  <conditionalFormatting sqref="K62 K65 K68:K73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14821,7 +14817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65 L62 L68:L73">
+  <conditionalFormatting sqref="L62 L65 L68:L73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17341,7 +17337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65 K62 K68:K73">
+  <conditionalFormatting sqref="K62 K65 K68:K73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17353,7 +17349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65 L62 L68:L73">
+  <conditionalFormatting sqref="L62 L65 L68:L73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17374,8 +17370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
@@ -20487,35 +20483,35 @@
         <v>2.1872961466290404</v>
       </c>
     </row>
-    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="92">
+      <c r="D145" s="78">
         <f t="shared" si="27"/>
         <v>0.33607422035449885</v>
       </c>
-      <c r="E145" s="92">
+      <c r="E145" s="78">
         <f t="shared" si="27"/>
         <v>0.29770925470398107</v>
       </c>
-      <c r="F145" s="92">
+      <c r="F145" s="78">
         <f t="shared" si="27"/>
         <v>0.16469222921558863</v>
       </c>
-      <c r="G145" s="92">
+      <c r="G145" s="78">
         <f t="shared" si="27"/>
         <v>8.9559509719961891E-2</v>
       </c>
-      <c r="H145" s="92">
+      <c r="H145" s="78">
         <f t="shared" si="27"/>
         <v>0.15570280695230479</v>
       </c>
-      <c r="I145" s="92">
+      <c r="I145" s="78">
         <f t="shared" si="27"/>
         <v>0.11884776922741683</v>
       </c>
-      <c r="J145" s="92">
+      <c r="J145" s="78">
         <f t="shared" si="27"/>
         <v>2.6294315817057936</v>
       </c>
@@ -20524,31 +20520,31 @@
       <c r="C146" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="92">
+      <c r="D146" s="78">
         <f t="shared" si="27"/>
         <v>0.25499764466433483</v>
       </c>
-      <c r="E146" s="92">
+      <c r="E146" s="78">
         <f t="shared" si="27"/>
         <v>0.35426163984699149</v>
       </c>
-      <c r="F146" s="92">
+      <c r="F146" s="78">
         <f t="shared" si="27"/>
         <v>0.37278238131649916</v>
       </c>
-      <c r="G146" s="92">
+      <c r="G146" s="78">
         <f t="shared" si="27"/>
         <v>0.20868047966125933</v>
       </c>
-      <c r="H146" s="92">
+      <c r="H146" s="78">
         <f t="shared" si="27"/>
         <v>0.12200849644321168</v>
       </c>
-      <c r="I146" s="92">
+      <c r="I146" s="78">
         <f t="shared" si="27"/>
         <v>0.13946295767904365</v>
       </c>
-      <c r="J146" s="92">
+      <c r="J146" s="78">
         <f t="shared" si="27"/>
         <v>0.23047000833116318</v>
       </c>
@@ -31720,7 +31716,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A4-1,0)</f>
         <v>non CUDA AVX Time</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -31754,7 +31750,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A5-1,0)</f>
         <v>367570.34</v>
       </c>
-      <c r="O4" s="90">
+      <c r="O4" s="80">
         <v>5</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -31797,7 +31793,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A5-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
@@ -31829,7 +31825,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A5-1+$A$1,0)</f>
         <v>1357.5706663296471</v>
       </c>
-      <c r="O5" s="91"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
@@ -31870,7 +31866,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A6-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -31904,7 +31900,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A6-1,0)</f>
         <v>30206.626000000011</v>
       </c>
-      <c r="O6" s="90">
+      <c r="O6" s="80">
         <v>100</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -31940,7 +31936,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="91"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
@@ -31972,7 +31968,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A6-1+$A$1,0)</f>
         <v>64.000995899131425</v>
       </c>
-      <c r="O7" s="91"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
@@ -32013,7 +32009,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A8-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -32047,7 +32043,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A8-1,0)</f>
         <v>30090.163999999993</v>
       </c>
-      <c r="O8" s="90">
+      <c r="O8" s="80">
         <v>1000</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -32074,7 +32070,7 @@
       <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="91"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
@@ -32106,7 +32102,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A8-1+$A$1,0)</f>
         <v>31.215446024773321</v>
       </c>
-      <c r="O9" s="91"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
@@ -32138,7 +32134,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A10-1,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
@@ -32170,7 +32166,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A10-1,0)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="90">
+      <c r="O10" s="80">
         <v>10000</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -32194,7 +32190,7 @@
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="91"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
@@ -32226,7 +32222,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A10-1+$A$1,0)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="91"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
@@ -32255,7 +32251,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A12-1,0)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
@@ -32287,7 +32283,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A12-1,0)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="90"/>
+      <c r="O12" s="80"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -32298,7 +32294,7 @@
       <c r="W12" s="13"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="91"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
@@ -32330,7 +32326,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!J$1,$A12-1+$A$1,0)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="91"/>
+      <c r="O13" s="81"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -32348,7 +32344,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A14-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -32384,7 +32380,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="91"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
@@ -32425,7 +32421,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A16-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -32461,7 +32457,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="91"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
@@ -32502,7 +32498,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10'!$C$1,A18-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -32538,7 +32534,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="91"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
@@ -32579,7 +32575,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A20-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -32615,7 +32611,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="91"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
@@ -32656,7 +32652,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A22-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -32692,7 +32688,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="91"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
@@ -32733,7 +32729,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A24-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -32769,7 +32765,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="91"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
@@ -32810,7 +32806,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A26-1,0)</f>
         <v>non CUDA AVX Time</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="80" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -32846,7 +32842,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="91"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
@@ -32887,7 +32883,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A28-1,0)</f>
         <v>non CUDA AVX_OMP Time</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="80" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -32923,7 +32919,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="91"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
@@ -32964,7 +32960,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A30-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -33000,7 +32996,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="91"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
@@ -33041,7 +33037,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A32-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -33077,7 +33073,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="91"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
@@ -33118,7 +33114,7 @@
         <f ca="1">OFFSET('3060LAPTOP 100'!$C$1,A34-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -33154,7 +33150,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="91"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -33195,7 +33191,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A36-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -33231,7 +33227,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="91"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
@@ -33272,7 +33268,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A38-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -33308,7 +33304,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="91"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
@@ -33349,7 +33345,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A40-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -33385,7 +33381,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="91"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="1" t="s">
         <v>19</v>
       </c>
@@ -33426,7 +33422,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A42-1,0)</f>
         <v>non CUDA AVX Time</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="80" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -33462,7 +33458,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="91"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="1" t="s">
         <v>19</v>
       </c>
@@ -33503,7 +33499,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A44-1,0)</f>
         <v>non CUDA AVX_OMP Time</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="80" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -33539,7 +33535,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="91"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
@@ -33580,7 +33576,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A46-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -33616,7 +33612,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="91"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="1" t="s">
         <v>19</v>
       </c>
@@ -33657,7 +33653,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A48-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C48" s="90" t="s">
+      <c r="C48" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -33693,7 +33689,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="91"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="1" t="s">
         <v>19</v>
       </c>
@@ -33734,7 +33730,7 @@
         <f ca="1">OFFSET('3060LAPTOP 1000'!$C$1,A50-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -33770,7 +33766,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="91"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
@@ -33811,7 +33807,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A52-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C52" s="90" t="s">
+      <c r="C52" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -33847,7 +33843,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="91"/>
+      <c r="C53" s="81"/>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
@@ -33888,7 +33884,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A54-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -33924,7 +33920,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="91"/>
+      <c r="C55" s="81"/>
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
@@ -33965,7 +33961,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A56-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C56" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -34001,7 +33997,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="91"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
@@ -34042,7 +34038,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A58-1,0)</f>
         <v>non CUDA AVX Time</v>
       </c>
-      <c r="C58" s="90" t="s">
+      <c r="C58" s="80" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -34078,7 +34074,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="91"/>
+      <c r="C59" s="81"/>
       <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
@@ -34119,7 +34115,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A60-1,0)</f>
         <v>non CUDA AVX_OMP Time</v>
       </c>
-      <c r="C60" s="90" t="s">
+      <c r="C60" s="80" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -34155,7 +34151,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="91"/>
+      <c r="C61" s="81"/>
       <c r="D61" s="1" t="s">
         <v>19</v>
       </c>
@@ -34196,7 +34192,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A62-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C62" s="90" t="s">
+      <c r="C62" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -34232,7 +34228,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="91"/>
+      <c r="C63" s="81"/>
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
@@ -34273,7 +34269,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A64-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C64" s="90" t="s">
+      <c r="C64" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -34309,7 +34305,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="91"/>
+      <c r="C65" s="81"/>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
@@ -34350,7 +34346,7 @@
         <f ca="1">OFFSET('3060LAPTOP 10000'!$C$1,A66-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C66" s="90" t="s">
+      <c r="C66" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -34386,7 +34382,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="91"/>
+      <c r="C67" s="81"/>
       <c r="D67" s="1" t="s">
         <v>19</v>
       </c>
@@ -34421,11 +34417,11 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="79"/>
-      <c r="C74" s="85" t="s">
+      <c r="B74" s="83"/>
+      <c r="C74" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="86"/>
+      <c r="D74" s="90"/>
       <c r="E74" s="41">
         <v>2</v>
       </c>
@@ -34449,11 +34445,11 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="79"/>
-      <c r="C75" s="87" t="s">
+      <c r="B75" s="83"/>
+      <c r="C75" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D75" s="88"/>
+      <c r="D75" s="92"/>
       <c r="E75" s="44">
         <v>42</v>
       </c>
@@ -34477,8 +34473,8 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="78"/>
-      <c r="C76" s="89" t="s">
+      <c r="B76" s="82"/>
+      <c r="C76" s="93" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="37" t="s">
@@ -34514,8 +34510,8 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="78"/>
-      <c r="C77" s="83"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="87"/>
       <c r="D77" s="38" t="s">
         <v>19</v>
       </c>
@@ -34549,8 +34545,8 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="78"/>
-      <c r="C78" s="82" t="s">
+      <c r="B78" s="82"/>
+      <c r="C78" s="86" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="38" t="s">
@@ -34586,8 +34582,8 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="78"/>
-      <c r="C79" s="84"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="88"/>
       <c r="D79" s="39" t="s">
         <v>19</v>
       </c>
@@ -34621,8 +34617,8 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="78"/>
-      <c r="C80" s="89" t="s">
+      <c r="B80" s="82"/>
+      <c r="C80" s="93" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="37" t="s">
@@ -34658,8 +34654,8 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="78"/>
-      <c r="C81" s="83"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="87"/>
       <c r="D81" s="38" t="s">
         <v>19</v>
       </c>
@@ -34693,8 +34689,8 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="78"/>
-      <c r="C82" s="82" t="s">
+      <c r="B82" s="82"/>
+      <c r="C82" s="86" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="38" t="s">
@@ -34730,8 +34726,8 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="78"/>
-      <c r="C83" s="83"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="87"/>
       <c r="D83" s="38" t="s">
         <v>19</v>
       </c>
@@ -34765,8 +34761,8 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="78"/>
-      <c r="C84" s="82" t="s">
+      <c r="B84" s="82"/>
+      <c r="C84" s="86" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="38" t="s">
@@ -34802,8 +34798,8 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="78"/>
-      <c r="C85" s="83"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="87"/>
       <c r="D85" s="38" t="s">
         <v>19</v>
       </c>
@@ -34837,8 +34833,8 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="78"/>
-      <c r="C86" s="82" t="s">
+      <c r="B86" s="82"/>
+      <c r="C86" s="86" t="s">
         <v>32</v>
       </c>
       <c r="D86" s="38" t="s">
@@ -34874,8 +34870,8 @@
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="78"/>
-      <c r="C87" s="83"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="87"/>
       <c r="D87" s="38" t="s">
         <v>19</v>
       </c>
@@ -34909,8 +34905,8 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="78"/>
-      <c r="C88" s="80" t="s">
+      <c r="B88" s="82"/>
+      <c r="C88" s="84" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="40" t="s">
@@ -34946,8 +34942,8 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="78"/>
-      <c r="C89" s="81"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="85"/>
       <c r="D89" s="40" t="s">
         <v>19</v>
       </c>
@@ -34981,8 +34977,8 @@
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="78"/>
-      <c r="C90" s="82" t="s">
+      <c r="B90" s="82"/>
+      <c r="C90" s="86" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="38" t="s">
@@ -35018,8 +35014,8 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="78"/>
-      <c r="C91" s="83"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="87"/>
       <c r="D91" s="38" t="s">
         <v>19</v>
       </c>
@@ -35053,8 +35049,8 @@
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="78"/>
-      <c r="C92" s="82" t="s">
+      <c r="B92" s="82"/>
+      <c r="C92" s="86" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="38" t="s">
@@ -35090,8 +35086,8 @@
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="78"/>
-      <c r="C93" s="83"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="87"/>
       <c r="D93" s="38" t="s">
         <v>19</v>
       </c>
@@ -35125,8 +35121,8 @@
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="78"/>
-      <c r="C94" s="82" t="s">
+      <c r="B94" s="82"/>
+      <c r="C94" s="86" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="38" t="s">
@@ -35162,8 +35158,8 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="78"/>
-      <c r="C95" s="84"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="88"/>
       <c r="D95" s="39" t="s">
         <v>19</v>
       </c>
@@ -35198,43 +35194,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
     <mergeCell ref="B76:B79"/>
     <mergeCell ref="B80:B95"/>
     <mergeCell ref="B74:B75"/>
@@ -35250,6 +35209,43 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="C84:C85"/>
     <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35387,7 +35383,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A4-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -35421,7 +35417,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A5-1,0)</f>
         <v>835652.72</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="80" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -35464,7 +35460,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A5-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
@@ -35496,7 +35492,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A5-1+$A$1,0)</f>
         <v>2479.4143158927041</v>
       </c>
-      <c r="O5" s="91"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
@@ -35565,7 +35561,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A6-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -35599,7 +35595,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A6-1,0)</f>
         <v>53372.171999999977</v>
       </c>
-      <c r="O6" s="90" t="s">
+      <c r="O6" s="80" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -35635,7 +35631,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C7" s="91"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
@@ -35667,7 +35663,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A6-1+$A$1,0)</f>
         <v>132.16203636458613</v>
       </c>
-      <c r="O7" s="91"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
@@ -35736,7 +35732,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A8-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -35770,7 +35766,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A8-1,0)</f>
         <v>52481.614000000001</v>
       </c>
-      <c r="O8" s="90" t="s">
+      <c r="O8" s="80" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -35806,7 +35802,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C9" s="91"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
@@ -35838,7 +35834,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A8-1+$A$1,0)</f>
         <v>66.672073313223166</v>
       </c>
-      <c r="O9" s="91"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
@@ -35907,7 +35903,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A10-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -35941,7 +35937,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A10-1,0)</f>
         <v>52241.043999999994</v>
       </c>
-      <c r="O10" s="90" t="s">
+      <c r="O10" s="80" t="s">
         <v>36</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -35977,7 +35973,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C11" s="91"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
@@ -36009,7 +36005,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A10-1+$A$1,0)</f>
         <v>32.116369403608751</v>
       </c>
-      <c r="O11" s="91"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
@@ -36078,7 +36074,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A12-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -36112,7 +36108,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A12-1,0)</f>
         <v>54374.391999999993</v>
       </c>
-      <c r="O12" s="90" t="s">
+      <c r="O12" s="80" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -36148,7 +36144,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C13" s="91"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
@@ -36180,7 +36176,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!J$1,$A12-1+$A$1,0)</f>
         <v>19.86815852104835</v>
       </c>
-      <c r="O13" s="91"/>
+      <c r="O13" s="81"/>
       <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
@@ -36249,7 +36245,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A14-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -36285,7 +36281,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C15" s="91"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
@@ -36326,7 +36322,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A16-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
@@ -36360,7 +36356,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="91"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
@@ -36401,7 +36397,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A18-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
@@ -36435,7 +36431,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="91"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
@@ -36476,7 +36472,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A20-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -36512,7 +36508,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="91"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
@@ -36553,7 +36549,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A22-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -36589,7 +36585,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="91"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
@@ -36630,7 +36626,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A24-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -36666,7 +36662,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="91"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
@@ -36707,7 +36703,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A26-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -36743,7 +36739,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="91"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
@@ -36784,7 +36780,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A28-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -36820,7 +36816,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="91"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
@@ -36861,7 +36857,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A30-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -36897,7 +36893,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="91"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
@@ -36938,7 +36934,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A32-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
@@ -36972,7 +36968,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="91"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
@@ -37013,7 +37009,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A34-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C34" s="90"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="1" t="s">
         <v>0</v>
       </c>
@@ -37047,7 +37043,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="91"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -37088,7 +37084,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A36-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -37124,7 +37120,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="91"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
@@ -37165,7 +37161,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A38-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -37201,7 +37197,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="91"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
@@ -37242,7 +37238,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A40-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -37278,7 +37274,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="91"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="1" t="s">
         <v>19</v>
       </c>
@@ -37319,7 +37315,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A42-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -37355,7 +37351,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="91"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="1" t="s">
         <v>19</v>
       </c>
@@ -37396,7 +37392,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A44-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -37432,7 +37428,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="91"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
@@ -37473,7 +37469,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A46-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -37509,7 +37505,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="91"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="1" t="s">
         <v>19</v>
       </c>
@@ -37550,7 +37546,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A48-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C48" s="90"/>
+      <c r="C48" s="80"/>
       <c r="D48" s="1" t="s">
         <v>0</v>
       </c>
@@ -37584,7 +37580,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="91"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="1" t="s">
         <v>19</v>
       </c>
@@ -37625,7 +37621,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A50-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C50" s="90"/>
+      <c r="C50" s="80"/>
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
@@ -37659,7 +37655,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="91"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
@@ -37700,7 +37696,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A52-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C52" s="90" t="s">
+      <c r="C52" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -37736,7 +37732,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="91"/>
+      <c r="C53" s="81"/>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
@@ -37777,7 +37773,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A54-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -37813,7 +37809,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="91"/>
+      <c r="C55" s="81"/>
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
@@ -37854,7 +37850,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A56-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C56" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -37890,7 +37886,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="91"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
@@ -37931,7 +37927,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A58-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C58" s="90" t="s">
+      <c r="C58" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -37967,7 +37963,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="91"/>
+      <c r="C59" s="81"/>
       <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
@@ -38008,7 +38004,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A60-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C60" s="90" t="s">
+      <c r="C60" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -38044,7 +38040,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="91"/>
+      <c r="C61" s="81"/>
       <c r="D61" s="1" t="s">
         <v>19</v>
       </c>
@@ -38085,7 +38081,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A62-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C62" s="90" t="s">
+      <c r="C62" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -38121,7 +38117,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="91"/>
+      <c r="C63" s="81"/>
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
@@ -38162,7 +38158,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A64-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C64" s="90"/>
+      <c r="C64" s="80"/>
       <c r="D64" s="1" t="s">
         <v>0</v>
       </c>
@@ -38196,7 +38192,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="91"/>
+      <c r="C65" s="81"/>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
@@ -38237,7 +38233,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A66-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C66" s="90"/>
+      <c r="C66" s="80"/>
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
@@ -38271,7 +38267,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="91"/>
+      <c r="C67" s="81"/>
       <c r="D67" s="1" t="s">
         <v>19</v>
       </c>
@@ -38312,7 +38308,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A68-1,0)</f>
         <v>Classic ACO</v>
       </c>
-      <c r="C68" s="90" t="s">
+      <c r="C68" s="80" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -38348,7 +38344,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="91"/>
+      <c r="C69" s="81"/>
       <c r="D69" s="1" t="s">
         <v>19</v>
       </c>
@@ -38389,7 +38385,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A70-1,0)</f>
         <v>non CUDA Time</v>
       </c>
-      <c r="C70" s="90" t="s">
+      <c r="C70" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -38425,7 +38421,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C71" s="91"/>
+      <c r="C71" s="81"/>
       <c r="D71" s="1" t="s">
         <v>19</v>
       </c>
@@ -38466,7 +38462,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A72-1,0)</f>
         <v>omp</v>
       </c>
-      <c r="C72" s="90" t="s">
+      <c r="C72" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -38502,7 +38498,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C73" s="91"/>
+      <c r="C73" s="81"/>
       <c r="D73" s="1" t="s">
         <v>19</v>
       </c>
@@ -38543,7 +38539,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A74-1,0)</f>
         <v>non CUDA transp Time</v>
       </c>
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="80" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -38579,7 +38575,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C75" s="91"/>
+      <c r="C75" s="81"/>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
@@ -38620,7 +38616,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A76-1,0)</f>
         <v>non CUDA transp_AVX Time</v>
       </c>
-      <c r="C76" s="90" t="s">
+      <c r="C76" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -38656,7 +38652,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="91"/>
+      <c r="C77" s="81"/>
       <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
@@ -38697,7 +38693,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A78-1,0)</f>
         <v>non CUDA transp_AVX_OMP Time</v>
       </c>
-      <c r="C78" s="90" t="s">
+      <c r="C78" s="80" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -38733,7 +38729,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="91"/>
+      <c r="C79" s="81"/>
       <c r="D79" s="1" t="s">
         <v>19</v>
       </c>
@@ -38774,7 +38770,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A80-1,0)</f>
         <v>Time non CUDA AVX time 4</v>
       </c>
-      <c r="C80" s="90"/>
+      <c r="C80" s="80"/>
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
@@ -38808,7 +38804,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="91"/>
+      <c r="C81" s="81"/>
       <c r="D81" s="1" t="s">
         <v>19</v>
       </c>
@@ -38849,7 +38845,7 @@
         <f ca="1">OFFSET('1050LAPTOP'!$C$1,A82-1,0)</f>
         <v>Time non CUDA AVX add CPU time 4</v>
       </c>
-      <c r="C82" s="90"/>
+      <c r="C82" s="80"/>
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
@@ -38883,7 +38879,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C83" s="91"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="1" t="s">
         <v>19</v>
       </c>
@@ -38918,35 +38914,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="C80:C81"/>
@@ -38963,6 +38930,35 @@
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41940,35 +41936,35 @@
         <v>4.641067239778744</v>
       </c>
     </row>
-    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="92" t="s">
+    <row r="145" spans="3:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="92">
+      <c r="D145" s="78">
         <f t="shared" si="7"/>
         <v>0.63501840563473766</v>
       </c>
-      <c r="E145" s="92">
+      <c r="E145" s="78">
         <f t="shared" si="7"/>
         <v>0.39406103737202924</v>
       </c>
-      <c r="F145" s="92">
+      <c r="F145" s="78">
         <f t="shared" si="7"/>
         <v>0.48666055364957039</v>
       </c>
-      <c r="G145" s="92">
+      <c r="G145" s="78">
         <f t="shared" si="7"/>
         <v>0.17199446385470296</v>
       </c>
-      <c r="H145" s="92">
+      <c r="H145" s="78">
         <f t="shared" si="7"/>
         <v>0.61493373892816594</v>
       </c>
-      <c r="I145" s="92">
+      <c r="I145" s="78">
         <f t="shared" si="7"/>
         <v>0.93045250957209025</v>
       </c>
-      <c r="J145" s="92">
+      <c r="J145" s="78">
         <f t="shared" si="7"/>
         <v>1.2539079406994291</v>
       </c>
@@ -42094,7 +42090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71 H68">
+  <conditionalFormatting sqref="H68 H71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -42106,7 +42102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71 I68">
+  <conditionalFormatting sqref="I68 I71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -42130,7 +42126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65 K62 K68:K73">
+  <conditionalFormatting sqref="K62 K65 K68:K73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -42142,7 +42138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65 L62 L68:L73">
+  <conditionalFormatting sqref="L62 L65 L68:L73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -45111,35 +45107,35 @@
         <v>2.5413601837777411</v>
       </c>
     </row>
-    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="92" t="s">
+    <row r="145" spans="3:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="92">
+      <c r="D145" s="78">
         <f t="shared" si="7"/>
         <v>0.16026633503713003</v>
       </c>
-      <c r="E145" s="92">
+      <c r="E145" s="78">
         <f t="shared" si="7"/>
         <v>0.32969519762220778</v>
       </c>
-      <c r="F145" s="92">
+      <c r="F145" s="78">
         <f t="shared" si="7"/>
         <v>0.31424451730391961</v>
       </c>
-      <c r="G145" s="92">
+      <c r="G145" s="78">
         <f t="shared" si="7"/>
         <v>0.10005412380346954</v>
       </c>
-      <c r="H145" s="92">
+      <c r="H145" s="78">
         <f t="shared" si="7"/>
         <v>2.0495151203794943</v>
       </c>
-      <c r="I145" s="92">
+      <c r="I145" s="78">
         <f t="shared" si="7"/>
         <v>1.4878439657522888</v>
       </c>
-      <c r="J145" s="92">
+      <c r="J145" s="78">
         <f t="shared" si="7"/>
         <v>1.8779777548526091</v>
       </c>
@@ -45265,7 +45261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71 H68">
+  <conditionalFormatting sqref="H68 H71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -45277,7 +45273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71 I68">
+  <conditionalFormatting sqref="I68 I71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -45301,7 +45297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65 K62 K68:K73">
+  <conditionalFormatting sqref="K62 K65 K68:K73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -45313,7 +45309,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65 L62 L68:L73">
+  <conditionalFormatting sqref="L62 L65 L68:L73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -48375,35 +48371,35 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="92" t="s">
+    <row r="145" spans="3:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="92">
+      <c r="D145" s="78">
         <f t="shared" si="7"/>
         <v>8.8549279854484131E-2</v>
       </c>
-      <c r="E145" s="92">
+      <c r="E145" s="78">
         <f t="shared" si="7"/>
         <v>0.10419011964967367</v>
       </c>
-      <c r="F145" s="92">
+      <c r="F145" s="78">
         <f t="shared" si="7"/>
         <v>0.11998302024825565</v>
       </c>
-      <c r="G145" s="92">
+      <c r="G145" s="78">
         <f t="shared" si="7"/>
         <v>0.22758993563207755</v>
       </c>
-      <c r="H145" s="92">
+      <c r="H145" s="78">
         <f t="shared" si="7"/>
         <v>0.19674938168770265</v>
       </c>
-      <c r="I145" s="92">
+      <c r="I145" s="78">
         <f t="shared" si="7"/>
         <v>0.35964716929883761</v>
       </c>
-      <c r="J145" s="92" t="e">
+      <c r="J145" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -48529,7 +48525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71 H68">
+  <conditionalFormatting sqref="H68 H71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -48541,7 +48537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71 I68">
+  <conditionalFormatting sqref="I68 I71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -48565,7 +48561,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65 K62 K68:K73">
+  <conditionalFormatting sqref="K62 K65 K68:K73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -48577,7 +48573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65 L62 L68:L73">
+  <conditionalFormatting sqref="L62 L65 L68:L73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -48598,11 +48594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51619,35 +51615,35 @@
         <v>0.74546382313043813</v>
       </c>
     </row>
-    <row r="145" spans="3:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="92" t="s">
+    <row r="145" spans="3:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="92">
+      <c r="D145" s="78">
         <f t="shared" si="15"/>
         <v>0.47286416551377192</v>
       </c>
-      <c r="E145" s="92">
+      <c r="E145" s="78">
         <f t="shared" si="15"/>
         <v>0.27291309288597698</v>
       </c>
-      <c r="F145" s="92">
+      <c r="F145" s="78">
         <f t="shared" si="15"/>
         <v>0.19738219081933392</v>
       </c>
-      <c r="G145" s="92">
+      <c r="G145" s="78">
         <f t="shared" si="15"/>
         <v>0.29537032778336653</v>
       </c>
-      <c r="H145" s="92">
+      <c r="H145" s="78">
         <f t="shared" si="15"/>
         <v>0.22040496648811364</v>
       </c>
-      <c r="I145" s="92">
+      <c r="I145" s="78">
         <f t="shared" si="15"/>
         <v>0.17989797267327245</v>
       </c>
-      <c r="J145" s="92">
+      <c r="J145" s="78">
         <f t="shared" si="15"/>
         <v>0.25537468035744471</v>
       </c>
@@ -51773,7 +51769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71 H68">
+  <conditionalFormatting sqref="H68 H71">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -51785,7 +51781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71 I68">
+  <conditionalFormatting sqref="I68 I71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -51809,7 +51805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65 K62 K68:K73">
+  <conditionalFormatting sqref="K62 K65 K68:K73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -51821,7 +51817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65 L62 L68:L73">
+  <conditionalFormatting sqref="L62 L65 L68:L73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
